--- a/802.11ac-wave-2-model.xlsx
+++ b/802.11ac-wave-2-model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="25460" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="9" r:id="rId1"/>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,11 +100,11 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Distribution of spatial streams for 802.11ac clients only.</t>
+          <t>Distribution of spatial streams for 802.11n clients only.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0">
+    <comment ref="B29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0">
+    <comment ref="B33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="B34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="322">
   <si>
     <t>1 SS</t>
   </si>
@@ -1186,6 +1186,9 @@
   </si>
   <si>
     <t>Added total throughput results above pie charts on output tabs; changed client mix and data rate distribution to be weight factors instead of percentages</t>
+  </si>
+  <si>
+    <t>Fixed several minor bugs in result display for equal airtime model; extended weight factors on input tab</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1307,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="354">
+  <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1659,8 +1662,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1695,6 +1706,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1704,10 +1723,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1716,13 +1735,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="354">
+  <cellStyles count="362">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1899,6 +1913,10 @@
     <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2075,6 +2093,10 @@
     <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2413,11 +2435,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2137227304"/>
-        <c:axId val="2137223512"/>
+        <c:axId val="-2114524408"/>
+        <c:axId val="-2114519144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137227304"/>
+        <c:axId val="-2114524408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2468,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137223512"/>
+        <c:crossAx val="-2114519144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2454,7 +2476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137223512"/>
+        <c:axId val="-2114519144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,7 +2486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137227304"/>
+        <c:crossAx val="-2114524408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2565,7 +2587,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.014684877097427</c:v>
+                  <c:v>5.564609916017467</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -2624,10 +2646,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.57034112142668</c:v>
+                  <c:v>40.6089220306545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>148.3023180808967</c:v>
+                  <c:v>235.2196291041172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2683,7 +2705,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.81951408958855</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2699,11 +2721,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2146616776"/>
-        <c:axId val="2146619752"/>
+        <c:axId val="-2114703672"/>
+        <c:axId val="-2114700696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146616776"/>
+        <c:axId val="-2114703672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2712,7 +2734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146619752"/>
+        <c:crossAx val="-2114700696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2720,7 +2742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146619752"/>
+        <c:axId val="-2114700696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146616776"/>
+        <c:crossAx val="-2114703672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2864,13 +2886,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.014684877097427</c:v>
+                  <c:v>5.564609916017467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.8726592023234</c:v>
+                  <c:v>275.8285511347717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.81951408958855</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2952,7 +2974,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'RESULT-t''put'!$B$80:$E$80</c:f>
+              <c:f>'RESULT-t''put'!$B$88:$E$88</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2972,18 +2994,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RESULT-t''put'!$B$84:$E$84</c:f>
+              <c:f>'RESULT-t''put'!$B$92:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>106.9908127977159</c:v>
+                  <c:v>27.43095254790835</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170.0638577888191</c:v>
+                  <c:v>18.74257939876362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.8341841278503</c:v>
+                  <c:v>235.2196291041172</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -3098,7 +3120,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>5.014684877097427</c:v>
+                  <c:v>5.564609916017467</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -3155,13 +3177,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.303094430073581</c:v>
+                  <c:v>11.90678402872753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.14586117187064</c:v>
+                  <c:v>11.63562949836677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.12138551948246</c:v>
+                  <c:v>17.06650850356021</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -3212,16 +3234,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.13340218219168</c:v>
+                  <c:v>49.9901867612879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.68839508234555</c:v>
+                  <c:v>54.96393398536258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.89122802932823</c:v>
+                  <c:v>79.35988722751674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.40880687661984</c:v>
+                  <c:v>50.90562112995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3237,11 +3259,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2133755000"/>
-        <c:axId val="2133389784"/>
+        <c:axId val="-2114611976"/>
+        <c:axId val="-2114609000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133755000"/>
+        <c:axId val="-2114611976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,7 +3272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133389784"/>
+        <c:crossAx val="-2114609000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3258,7 +3280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133389784"/>
+        <c:axId val="-2114609000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3288,7 +3310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133755000"/>
+        <c:crossAx val="-2114611976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3392,16 +3414,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24.45118148936269</c:v>
+                  <c:v>67.4615807060329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.83425625421618</c:v>
+                  <c:v>66.59956348372934</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.0126135488107</c:v>
+                  <c:v>96.42639573107695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.40880687661984</c:v>
+                  <c:v>50.90562112995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3511,13 +3533,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.014684877097427</c:v>
+                  <c:v>5.564609916017467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.57034112142668</c:v>
+                  <c:v>40.6089220306545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164.1218321704853</c:v>
+                  <c:v>235.2196291041172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3621,13 +3643,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.014684877097427</c:v>
+                  <c:v>5.564609916017467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.57034112142668</c:v>
+                  <c:v>40.6089220306545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164.1218321704853</c:v>
+                  <c:v>235.2196291041172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3642,11 +3664,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146940312"/>
-        <c:axId val="-2146937368"/>
+        <c:axId val="2143852152"/>
+        <c:axId val="2144308824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146940312"/>
+        <c:axId val="2143852152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3655,7 +3677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146937368"/>
+        <c:crossAx val="2144308824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3663,7 +3685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146937368"/>
+        <c:axId val="2144308824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,7 +3696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146940312"/>
+        <c:crossAx val="2143852152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3766,13 +3788,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.153054212696834</c:v>
+                  <c:v>0.169838586179321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.217665180284479</c:v>
+                  <c:v>0.488713208183503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.629280607018687</c:v>
+                  <c:v>0.341448205637175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4528,11 +4550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146823304"/>
-        <c:axId val="-2146817880"/>
+        <c:axId val="2136589768"/>
+        <c:axId val="2136575016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146823304"/>
+        <c:axId val="2136589768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4560,7 +4582,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-2146817880"/>
+        <c:crossAx val="2136575016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4568,7 +4590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146817880"/>
+        <c:axId val="2136575016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -4599,7 +4621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146823304"/>
+        <c:crossAx val="2136589768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5341,11 +5363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146754520"/>
-        <c:axId val="-2146749096"/>
+        <c:axId val="2136480120"/>
+        <c:axId val="2136475192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146754520"/>
+        <c:axId val="2136480120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5373,7 +5395,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-2146749096"/>
+        <c:crossAx val="2136475192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5381,7 +5403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146749096"/>
+        <c:axId val="2136475192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -5418,7 +5440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146754520"/>
+        <c:crossAx val="2136480120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5564,11 +5586,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2137174440"/>
-        <c:axId val="2137160424"/>
+        <c:axId val="-2114967752"/>
+        <c:axId val="-2114962328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137174440"/>
+        <c:axId val="-2114967752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5596,7 +5618,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137160424"/>
+        <c:crossAx val="-2114962328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5604,7 +5626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137160424"/>
+        <c:axId val="-2114962328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5614,7 +5636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137174440"/>
+        <c:crossAx val="-2114967752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5704,13 +5726,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.368547840000001</c:v>
+                  <c:v>3.640456533333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.06321709072263</c:v>
+                  <c:v>27.69785452262394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>173.8724403071813</c:v>
+                  <c:v>382.715649305149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5725,11 +5747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146716200"/>
-        <c:axId val="-2146713256"/>
+        <c:axId val="2136425192"/>
+        <c:axId val="2136420184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146716200"/>
+        <c:axId val="2136425192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5738,7 +5760,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146713256"/>
+        <c:crossAx val="2136420184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5746,7 +5768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146713256"/>
+        <c:axId val="2136420184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5776,7 +5798,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146716200"/>
+        <c:crossAx val="2136425192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5875,7 +5897,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>4.368547840000001</c:v>
+                  <c:v>3.640456533333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -5932,10 +5954,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.187886125773723</c:v>
+                  <c:v>14.91422935833597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.875330964948906</c:v>
+                  <c:v>12.78362516428797</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>0.0</c:v>
@@ -5989,13 +6011,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18.8581822458982</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.375905192546</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.8894560852335</c:v>
+                  <c:v>382.715649305149</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -6014,11 +6036,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2146673992"/>
-        <c:axId val="-2146668568"/>
+        <c:axId val="2136340968"/>
+        <c:axId val="2136346488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146673992"/>
+        <c:axId val="2136340968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6047,7 +6069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146668568"/>
+        <c:crossAx val="2136346488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6055,7 +6077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146668568"/>
+        <c:axId val="2136346488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6085,7 +6107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146673992"/>
+        <c:crossAx val="2136340968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6191,7 +6213,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.368547840000001</c:v>
+                  <c:v>3.640456533333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -6250,10 +6272,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.06321709072263</c:v>
+                  <c:v>27.69785452262394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.1130763465513</c:v>
+                  <c:v>382.715649305149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6309,7 +6331,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.75936396063002</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6325,11 +6347,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2146630696"/>
-        <c:axId val="-2146627720"/>
+        <c:axId val="2136384760"/>
+        <c:axId val="2136387736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146630696"/>
+        <c:axId val="2136384760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6338,7 +6360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146627720"/>
+        <c:crossAx val="2136387736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6346,7 +6368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146627720"/>
+        <c:axId val="2136387736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6376,7 +6398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146630696"/>
+        <c:crossAx val="2136384760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6477,13 +6499,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.368547840000001</c:v>
+                  <c:v>3.640456533333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.06321709072263</c:v>
+                  <c:v>27.69785452262394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>173.8724403071813</c:v>
+                  <c:v>382.715649305149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6583,7 +6605,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'RESULT-equal'!$B$15:$D$15</c:f>
+              <c:f>'RESULT-equal'!$B$22:$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6600,18 +6622,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RESULT-equal'!$B$19:$D$19</c:f>
+              <c:f>'RESULT-equal'!$B$25:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>32.7641088</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320.9856999734401</c:v>
+                  <c:v>382.715649305149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.13904594094502</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6693,7 +6715,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'RESULT-equal'!$B$56:$E$56</c:f>
+              <c:f>'RESULT-equal'!$B$64:$E$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -6713,18 +6735,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RESULT-equal'!$B$60:$E$60</c:f>
+              <c:f>'RESULT-equal'!$B$68:$E$68</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>106.9908127977159</c:v>
+                  <c:v>18.5546858916693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170.0638577888191</c:v>
+                  <c:v>12.78362516428797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.8341841278503</c:v>
+                  <c:v>382.715649305149</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -6839,7 +6861,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>4.368547840000001</c:v>
+                  <c:v>3.640456533333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -6896,13 +6918,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.872708095197106</c:v>
+                  <c:v>8.121180158661843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.809393093054376</c:v>
+                  <c:v>7.93623561052995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.381115902471146</c:v>
+                  <c:v>11.64043875343214</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -6953,16 +6975,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.97307880835634</c:v>
+                  <c:v>81.33686316103917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.88804866374066</c:v>
+                  <c:v>89.42943139435974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.86528890636525</c:v>
+                  <c:v>129.1230280599522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.14602392871913</c:v>
+                  <c:v>82.826326689798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6978,11 +7000,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2146515080"/>
-        <c:axId val="-2146512104"/>
+        <c:axId val="2136235336"/>
+        <c:axId val="2136238312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146515080"/>
+        <c:axId val="2136235336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6991,7 +7013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146512104"/>
+        <c:crossAx val="2136238312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6999,7 +7021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146512104"/>
+        <c:axId val="2136238312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7029,7 +7051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146515080"/>
+        <c:crossAx val="2136235336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7133,16 +7155,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24.21433474355345</c:v>
+                  <c:v>93.09849985303435</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.69744175679504</c:v>
+                  <c:v>97.36566700488969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.2464048088364</c:v>
+                  <c:v>140.7634668133844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.14602392871913</c:v>
+                  <c:v>82.826326689798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7382,154 +7404,154 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>67.85617129301349</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.63700096899286</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.5738702210541</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.9802328467404</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.9781146429315</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143.9819036939293</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149.4854061524572</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>154.1304042106195</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157.8256167466643</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>161.0111935996846</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>163.7122297280256</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>166.1126213500958</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>168.1769378578774</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>169.9760508699888</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>171.6017847157424</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>173.0965476848524</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>174.3568138323372</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>175.5483958382704</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>176.6335675953896</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>177.6103561892078</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>178.5101680002605</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>179.3330792059547</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>180.0919100623029</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>180.825877135056</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>181.473296533246</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>182.1021221211817</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>182.6634421011985</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>183.2029841300692</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>183.7030982991928</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>184.1708049663449</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>184.6156616172568</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>185.0548581268971</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>185.43172470329</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>185.8137986893613</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>186.1739615514785</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>186.5074784537751</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>186.8267597020785</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>187.1290640633952</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>187.4332481223246</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>187.7068581690094</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>187.9669116316344</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>188.2233848505335</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>188.4665311970202</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>188.6943130121825</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>188.9168619516743</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>189.1283371090044</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>189.339394543007</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>189.5377594338928</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>189.7167312466849</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>189.9024206148184</c:v>
+                  <c:v>281.3931610507892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7544,11 +7566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147468232"/>
-        <c:axId val="-2147462760"/>
+        <c:axId val="-2122687432"/>
+        <c:axId val="-2123254056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2147468232"/>
+        <c:axId val="-2122687432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7577,12 +7599,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147462760"/>
+        <c:crossAx val="-2123254056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147462760"/>
+        <c:axId val="-2123254056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7611,7 +7633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147468232"/>
+        <c:crossAx val="-2122687432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7820,148 +7842,148 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.514143003827378</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.608596087647951</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.673926285048911</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.721307891702792</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.758188880519694</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.787169566709528</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.811629486931313</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.831087967366062</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.847862776463844</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.862086060820074</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.874726192600906</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.885596599102825</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.895070480511428</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.903631371101923</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.911502587088905</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.918138975100204</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.924413681878955</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.930128046938685</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.935271681183344</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.940009966288608</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.944343303394212</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.948339202203145</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.952204171751067</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.955613393161168</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.958924702126582</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.961880535855292</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.96472168989179</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.967355222247537</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.969818101159968</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.972160655033014</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.974473403381447</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.976457930883375</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.978469879887681</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.980366447930106</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.982122702016899</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.983803993109817</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.985395886253348</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.9869976776257</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.988438470459193</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.989807876187582</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.991158428845462</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.992438804028145</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.993638271704359</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.994810183777788</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.995923782839061</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.997035182226806</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.998079744430087</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.999022185354287</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.0</c:v>
@@ -7979,8 +8001,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147428008"/>
-        <c:axId val="-2147425016"/>
+        <c:axId val="-2122349880"/>
+        <c:axId val="-2122346888"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -8157,151 +8179,151 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.156821748662089</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0944530838205732</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0653301974009606</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0473816066538805</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0368809888169022</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0289806861898343</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0244599202217846</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0194584804347487</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0167748090977818</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0142232843562301</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0126401317808319</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0108704065019195</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00947388140860272</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00856089059049481</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00787121598698237</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00663638801129884</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00627470677875164</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00571436505972911</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00514363424465958</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00473828510526386</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00433333710560368</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00399589880893303</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00386496954792226</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00340922141010136</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00331130896541387</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00295583372870956</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.00284115403649832</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00263353235574648</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00246287891243191</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00234255387304527</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00231274834843309</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00198452750192846</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00201194900430612</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00189656804242455</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0017562540867927</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00168129109291881</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00159189314353103</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00160179137235106</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00144079283349319</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00136940572838951</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.00135055265787987</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.00128037518268331</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.00119946767621404</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.00117191207342826</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.00111359906127317</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.00111139938774474</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.00104456220328109</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.000942440924200371</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.000977814645712893</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8316,11 +8338,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147418680"/>
-        <c:axId val="-2147421976"/>
+        <c:axId val="-2122368904"/>
+        <c:axId val="-2122360136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2147428008"/>
+        <c:axId val="-2122349880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8330,12 +8352,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147425016"/>
+        <c:crossAx val="-2122346888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147425016"/>
+        <c:axId val="-2122346888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8346,12 +8368,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147428008"/>
+        <c:crossAx val="-2122349880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147421976"/>
+        <c:axId val="-2122360136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8361,12 +8383,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147418680"/>
+        <c:crossAx val="-2122368904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147418680"/>
+        <c:axId val="-2122368904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8376,7 +8398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147421976"/>
+        <c:crossAx val="-2122360136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8486,34 +8508,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8528,11 +8550,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2032021112"/>
-        <c:axId val="2032042552"/>
+        <c:axId val="-2114936376"/>
+        <c:axId val="-2114930936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2032021112"/>
+        <c:axId val="-2114936376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8560,7 +8582,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2032042552"/>
+        <c:crossAx val="-2114930936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8568,7 +8590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2032042552"/>
+        <c:axId val="-2114930936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8578,7 +8600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2032021112"/>
+        <c:crossAx val="-2114936376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8647,7 +8669,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'IN-client'!$A$13:$A$16</c:f>
+              <c:f>'IN-client'!$A$14:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8667,7 +8689,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'IN-client'!$C$13:$C$16</c:f>
+              <c:f>'IN-client'!$C$14:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8675,10 +8697,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -8769,7 +8791,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'IN-client'!$A$20:$A$23</c:f>
+              <c:f>'IN-client'!$A$22:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8789,21 +8811,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'IN-client'!$C$20:$C$23</c:f>
+              <c:f>'IN-client'!$C$22:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>0.411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.235294117647059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.235294117647059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0.117647058823529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8891,7 +8913,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'IN-client'!$F$13:$F$14</c:f>
+              <c:f>'IN-client'!$F$14:$F$15</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8905,7 +8927,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'IN-client'!$G$13:$G$14</c:f>
+              <c:f>'IN-client'!$G$14:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -9006,7 +9028,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'IN-client'!$F$20:$F$23</c:f>
+              <c:f>'IN-client'!$F$22:$F$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -9026,18 +9048,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'IN-client'!$G$20:$G$23</c:f>
+              <c:f>'IN-client'!$G$22:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -9175,16 +9197,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0%">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.0%">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.555555555555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9302,7 +9324,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>5.014684877097427</c:v>
+                  <c:v>5.564609916017467</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -9359,10 +9381,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.99941444999898</c:v>
+                  <c:v>21.86634263189089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5709266714277</c:v>
+                  <c:v>18.74257939876362</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -9416,13 +9438,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17.80063255645177</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.2389224108072</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.08227720322635</c:v>
+                  <c:v>235.2196291041172</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -9441,11 +9463,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2146875976"/>
-        <c:axId val="2146752232"/>
+        <c:axId val="-2114748104"/>
+        <c:axId val="-2114742584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146875976"/>
+        <c:axId val="-2114748104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9474,7 +9496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146752232"/>
+        <c:crossAx val="-2114742584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9482,7 +9504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146752232"/>
+        <c:axId val="-2114742584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9512,7 +9534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146875976"/>
+        <c:crossAx val="-2114748104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10998,7 +11020,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="15">
-        <f>'IN-client'!C$31</f>
+        <f>'IN-client'!B$33</f>
         <v>0</v>
       </c>
     </row>
@@ -11483,7 +11505,7 @@
         <v>60</v>
       </c>
       <c r="B29" s="15">
-        <f>'IN-client'!C$31</f>
+        <f>'IN-client'!B$33</f>
         <v>0</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -11499,7 +11521,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="15">
-        <f>'IN-client'!C$32</f>
+        <f>'IN-client'!B$34</f>
         <v>40</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -11542,20 +11564,20 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="9"/>
@@ -12038,20 +12060,20 @@
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="9"/>
@@ -12533,20 +12555,20 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="9"/>
@@ -13028,20 +13050,20 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="9"/>
@@ -13525,17 +13547,17 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="31" t="s">
+      <c r="E86" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
     </row>
     <row r="87" spans="1:13">
       <c r="B87" s="8" t="s">
@@ -13569,11 +13591,11 @@
         <v>0</v>
       </c>
       <c r="F88" s="11">
-        <f>'IN-client'!C13*'IN-client'!G13</f>
+        <f>'IN-client'!C14*'IN-client'!G14</f>
         <v>0.35</v>
       </c>
       <c r="G88" s="11">
-        <f>'IN-client'!G14*'IN-client'!C13</f>
+        <f>'IN-client'!G15*'IN-client'!C14</f>
         <v>0.15</v>
       </c>
     </row>
@@ -13594,12 +13616,12 @@
         <v>1</v>
       </c>
       <c r="F89" s="11">
-        <f>'IN-client'!C14*'IN-client'!G13</f>
-        <v>0.13999999999999999</v>
+        <f>'IN-client'!C15*'IN-client'!G14</f>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G89" s="11">
-        <f>'IN-client'!G14*'IN-client'!C14</f>
-        <v>0.06</v>
+        <f>'IN-client'!G15*'IN-client'!C15</f>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -13619,12 +13641,12 @@
         <v>2</v>
       </c>
       <c r="F90" s="11">
-        <f>'IN-client'!C15*'IN-client'!G13</f>
-        <v>0.21</v>
+        <f>'IN-client'!C16*'IN-client'!G14</f>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G90" s="11">
-        <f>'IN-client'!G14*'IN-client'!C15</f>
-        <v>0.09</v>
+        <f>'IN-client'!G15*'IN-client'!C16</f>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -13644,11 +13666,11 @@
         <v>3</v>
       </c>
       <c r="F91" s="11">
-        <f>'IN-client'!C16*'IN-client'!G13</f>
+        <f>'IN-client'!C17*'IN-client'!G14</f>
         <v>0</v>
       </c>
       <c r="G91" s="11">
-        <f>'IN-client'!G14*'IN-client'!C16</f>
+        <f>'IN-client'!G15*'IN-client'!C17</f>
         <v>0</v>
       </c>
     </row>
@@ -13667,12 +13689,12 @@
       <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
@@ -13710,15 +13732,15 @@
       </c>
       <c r="B97" s="8">
         <f t="shared" ref="B97:C97" si="33">B89*F89</f>
-        <v>10.256058327454088</v>
+        <v>12.820072909317611</v>
       </c>
       <c r="C97" s="8">
         <f t="shared" si="33"/>
-        <v>8.7909071378177899</v>
+        <v>10.988633922272237</v>
       </c>
       <c r="D97" s="8">
         <f t="shared" si="32"/>
-        <v>19.046965465271878</v>
+        <v>23.808706831589848</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -13727,15 +13749,15 @@
       </c>
       <c r="B98" s="8">
         <f t="shared" ref="B98:C98" si="34">B90*F90</f>
-        <v>22.564542814345394</v>
+        <v>18.803785678621161</v>
       </c>
       <c r="C98" s="8">
         <f t="shared" si="34"/>
-        <v>19.341036698010338</v>
+        <v>16.117530581675279</v>
       </c>
       <c r="D98" s="8">
         <f t="shared" si="32"/>
-        <v>41.905579512355729</v>
+        <v>34.921316260296436</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -13761,15 +13783,15 @@
       </c>
       <c r="B100" s="8">
         <f>SUM(B96:B99)</f>
-        <v>45.939430628868614</v>
+        <v>44.742688075007905</v>
       </c>
       <c r="C100" s="8">
         <f>SUM(C96:C99)</f>
-        <v>39.376654824744527</v>
+        <v>38.350875492863921</v>
       </c>
       <c r="D100" s="8">
         <f>SUM(B96:C99)</f>
-        <v>85.316085453613141</v>
+        <v>83.093563567871826</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="25">
@@ -13845,7 +13867,7 @@
         <v>60</v>
       </c>
       <c r="B108" s="15">
-        <f>'IN-client'!C$31</f>
+        <f>'IN-client'!B$33</f>
         <v>0</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -13861,7 +13883,7 @@
         <v>69</v>
       </c>
       <c r="B109" s="15">
-        <f>'IN-client'!C$32</f>
+        <f>'IN-client'!B$34</f>
         <v>40</v>
       </c>
       <c r="D109" s="9" t="s">
@@ -13904,20 +13926,20 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="32" t="s">
+      <c r="A113" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="32"/>
-      <c r="L113" s="32"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="35"/>
+      <c r="L113" s="35"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="9"/>
@@ -13992,11 +14014,11 @@
       </c>
       <c r="H116" s="8">
         <f>G116*'IN-rates'!M$7</f>
-        <v>3982.9800000000005</v>
+        <v>0</v>
       </c>
       <c r="I116" s="8">
         <f>H116/B$109</f>
-        <v>99.574500000000015</v>
+        <v>0</v>
       </c>
       <c r="J116" s="8">
         <f t="shared" ref="J116:J123" si="38">C116*B116/G116</f>
@@ -14008,7 +14030,7 @@
       </c>
       <c r="L116" s="8">
         <f>J116*'IN-rates'!$M$7</f>
-        <v>0.30853531777714172</v>
+        <v>0</v>
       </c>
       <c r="M116" s="10">
         <f>G116/($B$105*8*$B$109)</f>
@@ -14044,11 +14066,11 @@
       </c>
       <c r="H117" s="8">
         <f>G117*'IN-rates'!M$8</f>
-        <v>1997.8500000000004</v>
+        <v>0</v>
       </c>
       <c r="I117" s="8">
         <f t="shared" ref="I117:I125" si="41">H117/B$109</f>
-        <v>49.946250000000006</v>
+        <v>0</v>
       </c>
       <c r="J117" s="8">
         <f t="shared" si="38"/>
@@ -14060,7 +14082,7 @@
       </c>
       <c r="L117" s="8">
         <f>J117*'IN-rates'!$M$8</f>
-        <v>0.61510623920714758</v>
+        <v>0</v>
       </c>
       <c r="M117" s="10">
         <f t="shared" ref="M117:M125" si="42">G117/($B$105*8*$B$109)</f>
@@ -14096,11 +14118,11 @@
       </c>
       <c r="H118" s="8">
         <f>G118*'IN-rates'!M$9</f>
-        <v>1336.1400000000003</v>
+        <v>0</v>
       </c>
       <c r="I118" s="8">
         <f t="shared" si="41"/>
-        <v>33.403500000000008</v>
+        <v>0</v>
       </c>
       <c r="J118" s="8">
         <f t="shared" si="38"/>
@@ -14112,7 +14134,7 @@
       </c>
       <c r="L118" s="8">
         <f>J118*'IN-rates'!$M$9</f>
-        <v>0.91973146526561578</v>
+        <v>0</v>
       </c>
       <c r="M118" s="10">
         <f t="shared" si="42"/>
@@ -14148,11 +14170,11 @@
       </c>
       <c r="H119" s="8">
         <f>G119*'IN-rates'!M$10</f>
-        <v>2010.7800000000004</v>
+        <v>0</v>
       </c>
       <c r="I119" s="8">
         <f t="shared" si="41"/>
-        <v>50.269500000000008</v>
+        <v>0</v>
       </c>
       <c r="J119" s="8">
         <f t="shared" si="38"/>
@@ -14164,7 +14186,7 @@
       </c>
       <c r="L119" s="8">
         <f>J119*'IN-rates'!$M$10</f>
-        <v>2.4448621927809109</v>
+        <v>0</v>
       </c>
       <c r="M119" s="10">
         <f t="shared" si="42"/>
@@ -14200,11 +14222,11 @@
       </c>
       <c r="H120" s="8">
         <f>G120*'IN-rates'!M$11</f>
-        <v>1348.8600000000001</v>
+        <v>0</v>
       </c>
       <c r="I120" s="8">
         <f t="shared" si="41"/>
-        <v>33.721500000000006</v>
+        <v>0</v>
       </c>
       <c r="J120" s="8">
         <f t="shared" si="38"/>
@@ -14216,7 +14238,7 @@
       </c>
       <c r="L120" s="8">
         <f>J120*'IN-rates'!$M$11</f>
-        <v>3.6442329077887994</v>
+        <v>0</v>
       </c>
       <c r="M120" s="10">
         <f t="shared" si="42"/>
@@ -14252,11 +14274,11 @@
       </c>
       <c r="H121" s="8">
         <f>G121*'IN-rates'!M$12</f>
-        <v>1527.4799999999998</v>
+        <v>0</v>
       </c>
       <c r="I121" s="8">
         <f t="shared" si="41"/>
-        <v>38.186999999999998</v>
+        <v>0</v>
       </c>
       <c r="J121" s="8">
         <f t="shared" si="38"/>
@@ -14268,7 +14290,7 @@
       </c>
       <c r="L121" s="8">
         <f>J121*'IN-rates'!$M$12</f>
-        <v>7.2429884515672871</v>
+        <v>0</v>
       </c>
       <c r="M121" s="10">
         <f t="shared" si="42"/>
@@ -14304,11 +14326,11 @@
       </c>
       <c r="H122" s="8">
         <f>G122*'IN-rates'!M$13</f>
-        <v>1361.79</v>
+        <v>0</v>
       </c>
       <c r="I122" s="8">
         <f t="shared" si="41"/>
-        <v>34.044750000000001</v>
+        <v>0</v>
       </c>
       <c r="J122" s="8">
         <f t="shared" si="38"/>
@@ -14320,7 +14342,7 @@
       </c>
       <c r="L122" s="8">
         <f>J122*'IN-rates'!$M$13</f>
-        <v>8.1229594871455948</v>
+        <v>0</v>
       </c>
       <c r="M122" s="10">
         <f t="shared" si="42"/>
@@ -14356,11 +14378,11 @@
       </c>
       <c r="H123" s="8">
         <f>G123*'IN-rates'!M$14</f>
-        <v>1639.3200000000002</v>
+        <v>0</v>
       </c>
       <c r="I123" s="8">
         <f t="shared" si="41"/>
-        <v>40.983000000000004</v>
+        <v>0</v>
       </c>
       <c r="J123" s="8">
         <f t="shared" si="38"/>
@@ -14372,7 +14394,7 @@
       </c>
       <c r="L123" s="8">
         <f>J123*'IN-rates'!$M$14</f>
-        <v>11.996681550886954</v>
+        <v>0</v>
       </c>
       <c r="M123" s="10">
         <f t="shared" si="42"/>
@@ -14408,11 +14430,11 @@
       </c>
       <c r="H124" s="8">
         <f>G124*'IN-rates'!M$15</f>
-        <v>687.36000000000013</v>
+        <v>0</v>
       </c>
       <c r="I124" s="8">
         <f t="shared" si="41"/>
-        <v>17.184000000000005</v>
+        <v>0</v>
       </c>
       <c r="J124" s="8">
         <f t="shared" ref="J124:J125" si="43">C124*B124/G124</f>
@@ -14424,7 +14446,7 @@
       </c>
       <c r="L124" s="8">
         <f>J124*'IN-rates'!$M$15</f>
-        <v>7.1536312849162007</v>
+        <v>0</v>
       </c>
       <c r="M124" s="10">
         <f t="shared" si="42"/>
@@ -14460,11 +14482,11 @@
       </c>
       <c r="H125" s="8">
         <f>G125*'IN-rates'!M$16</f>
-        <v>311.13</v>
+        <v>6222.5999999999995</v>
       </c>
       <c r="I125" s="8">
         <f t="shared" si="41"/>
-        <v>7.7782499999999999</v>
+        <v>155.565</v>
       </c>
       <c r="J125" s="8">
         <f t="shared" si="43"/>
@@ -14476,7 +14498,7 @@
       </c>
       <c r="L125" s="8">
         <f>J125*'IN-rates'!$M$16</f>
-        <v>3.9506476392504748</v>
+        <v>79.012952785009489</v>
       </c>
       <c r="M125" s="10">
         <f t="shared" si="42"/>
@@ -14490,7 +14512,7 @@
       <c r="H126" s="8"/>
       <c r="I126" s="8">
         <f>SUM(I116:I125)</f>
-        <v>405.09225000000009</v>
+        <v>155.565</v>
       </c>
       <c r="J126" s="8"/>
       <c r="K126" t="s">
@@ -14498,7 +14520,7 @@
       </c>
       <c r="L126" s="8">
         <f>SUM(L116:L125)</f>
-        <v>46.399376536586132</v>
+        <v>79.012952785009489</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -14506,20 +14528,20 @@
       <c r="K127" s="11"/>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="32"/>
-      <c r="J129" s="32"/>
-      <c r="K129" s="32"/>
-      <c r="L129" s="32"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35"/>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="9"/>
@@ -14594,11 +14616,11 @@
       </c>
       <c r="H132" s="8">
         <f>G132*'IN-rates'!M$7</f>
-        <v>1997.8500000000004</v>
+        <v>0</v>
       </c>
       <c r="I132" s="8">
         <f>H132/B$109</f>
-        <v>49.946250000000006</v>
+        <v>0</v>
       </c>
       <c r="J132" s="8">
         <f t="shared" ref="J132:J139" si="47">C132*B132/G132</f>
@@ -14610,7 +14632,7 @@
       </c>
       <c r="L132" s="8">
         <f>J132*'IN-rates'!$M$7</f>
-        <v>0.61510623920714758</v>
+        <v>0</v>
       </c>
       <c r="M132" s="10">
         <f>G132/($B$105*8*$B$109)</f>
@@ -14646,11 +14668,11 @@
       </c>
       <c r="H133" s="8">
         <f>G133*'IN-rates'!M$8</f>
-        <v>1005.3900000000002</v>
+        <v>0</v>
       </c>
       <c r="I133" s="8">
         <f t="shared" ref="I133:I141" si="50">H133/B$109</f>
-        <v>25.134750000000004</v>
+        <v>0</v>
       </c>
       <c r="J133" s="8">
         <f t="shared" si="47"/>
@@ -14662,7 +14684,7 @@
       </c>
       <c r="L133" s="8">
         <f>J133*'IN-rates'!$M$8</f>
-        <v>1.2224310963904554</v>
+        <v>0</v>
       </c>
       <c r="M133" s="10">
         <f t="shared" ref="M133:M141" si="51">G133/($B$105*8*$B$109)</f>
@@ -14698,11 +14720,11 @@
       </c>
       <c r="H134" s="8">
         <f>G134*'IN-rates'!M$9</f>
-        <v>674.43000000000006</v>
+        <v>0</v>
       </c>
       <c r="I134" s="8">
         <f t="shared" si="50"/>
-        <v>16.860750000000003</v>
+        <v>0</v>
       </c>
       <c r="J134" s="8">
         <f t="shared" si="47"/>
@@ -14714,7 +14736,7 @@
       </c>
       <c r="L134" s="8">
         <f>J134*'IN-rates'!$M$9</f>
-        <v>1.8221164538943997</v>
+        <v>0</v>
       </c>
       <c r="M134" s="10">
         <f t="shared" si="51"/>
@@ -14750,11 +14772,11 @@
       </c>
       <c r="H135" s="8">
         <f>G135*'IN-rates'!M$10</f>
-        <v>1018.3199999999999</v>
+        <v>0</v>
       </c>
       <c r="I135" s="8">
         <f t="shared" si="50"/>
-        <v>25.457999999999998</v>
+        <v>0</v>
       </c>
       <c r="J135" s="8">
         <f t="shared" si="47"/>
@@ -14766,7 +14788,7 @@
       </c>
       <c r="L135" s="8">
         <f>J135*'IN-rates'!$M$10</f>
-        <v>4.8286589677115259</v>
+        <v>0</v>
       </c>
       <c r="M135" s="10">
         <f t="shared" si="51"/>
@@ -14802,11 +14824,11 @@
       </c>
       <c r="H136" s="8">
         <f>G136*'IN-rates'!M$11</f>
-        <v>687.36000000000013</v>
+        <v>0</v>
       </c>
       <c r="I136" s="8">
         <f t="shared" si="50"/>
-        <v>17.184000000000005</v>
+        <v>0</v>
       </c>
       <c r="J136" s="8">
         <f t="shared" si="47"/>
@@ -14818,7 +14840,7 @@
       </c>
       <c r="L136" s="8">
         <f>J136*'IN-rates'!$M$11</f>
-        <v>7.1536312849162007</v>
+        <v>0</v>
       </c>
       <c r="M136" s="10">
         <f t="shared" si="51"/>
@@ -14854,11 +14876,11 @@
       </c>
       <c r="H137" s="8">
         <f>G137*'IN-rates'!M$12</f>
-        <v>782.81999999999982</v>
+        <v>0</v>
       </c>
       <c r="I137" s="8">
         <f t="shared" si="50"/>
-        <v>19.570499999999996</v>
+        <v>0</v>
       </c>
       <c r="J137" s="8">
         <f t="shared" si="47"/>
@@ -14870,7 +14892,7 @@
       </c>
       <c r="L137" s="8">
         <f>J137*'IN-rates'!$M$12</f>
-        <v>14.132904115888712</v>
+        <v>0</v>
       </c>
       <c r="M137" s="10">
         <f t="shared" si="51"/>
@@ -14906,11 +14928,11 @@
       </c>
       <c r="H138" s="8">
         <f>G138*'IN-rates'!M$13</f>
-        <v>700.29000000000008</v>
+        <v>0</v>
       </c>
       <c r="I138" s="8">
         <f t="shared" si="50"/>
-        <v>17.507250000000003</v>
+        <v>0</v>
       </c>
       <c r="J138" s="8">
         <f t="shared" si="47"/>
@@ -14922,7 +14944,7 @@
       </c>
       <c r="L138" s="8">
         <f>J138*'IN-rates'!$M$13</f>
-        <v>15.803495694640791</v>
+        <v>0</v>
       </c>
       <c r="M138" s="10">
         <f t="shared" si="51"/>
@@ -14958,11 +14980,11 @@
       </c>
       <c r="H139" s="8">
         <f>G139*'IN-rates'!M$14</f>
-        <v>845.5200000000001</v>
+        <v>0</v>
       </c>
       <c r="I139" s="8">
         <f t="shared" si="50"/>
-        <v>21.138000000000002</v>
+        <v>0</v>
       </c>
       <c r="J139" s="8">
         <f t="shared" si="47"/>
@@ -14974,7 +14996,7 @@
       </c>
       <c r="L139" s="8">
         <f>J139*'IN-rates'!$M$14</f>
-        <v>23.271832718327182</v>
+        <v>0</v>
       </c>
       <c r="M139" s="10">
         <f t="shared" si="51"/>
@@ -15010,11 +15032,11 @@
       </c>
       <c r="H140" s="8">
         <f>G140*'IN-rates'!M$15</f>
-        <v>356.40000000000009</v>
+        <v>0</v>
       </c>
       <c r="I140" s="8">
         <f t="shared" si="50"/>
-        <v>8.9100000000000019</v>
+        <v>0</v>
       </c>
       <c r="J140" s="8">
         <f t="shared" ref="J140:J141" si="52">C140*B140/G140</f>
@@ -15026,7 +15048,7 @@
       </c>
       <c r="L140" s="8">
         <f>J140*'IN-rates'!$M$15</f>
-        <v>13.796632996632994</v>
+        <v>0</v>
       </c>
       <c r="M140" s="10">
         <f t="shared" si="51"/>
@@ -15062,11 +15084,11 @@
       </c>
       <c r="H141" s="8">
         <f>G141*'IN-rates'!M$16</f>
-        <v>161.82000000000002</v>
+        <v>3236.4</v>
       </c>
       <c r="I141" s="8">
         <f t="shared" si="50"/>
-        <v>4.0455000000000005</v>
+        <v>80.91</v>
       </c>
       <c r="J141" s="8">
         <f t="shared" si="52"/>
@@ -15078,7 +15100,7 @@
       </c>
       <c r="L141" s="8">
         <f>J141*'IN-rates'!$M$16</f>
-        <v>7.6015016685205783</v>
+        <v>152.03003337041156</v>
       </c>
       <c r="M141" s="10">
         <f t="shared" si="51"/>
@@ -15089,7 +15111,7 @@
       <c r="H142" s="8"/>
       <c r="I142" s="8">
         <f>SUM(I132:I141)</f>
-        <v>205.755</v>
+        <v>80.91</v>
       </c>
       <c r="J142" s="8"/>
       <c r="K142" t="s">
@@ -15097,24 +15119,24 @@
       </c>
       <c r="L142" s="8">
         <f>SUM(L132:L141)</f>
-        <v>90.248311236129979</v>
+        <v>152.03003337041156</v>
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="33" t="s">
+      <c r="A144" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="B144" s="33"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="33"/>
-      <c r="J144" s="33"/>
-      <c r="K144" s="33"/>
-      <c r="L144" s="33"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="37"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="37"/>
+      <c r="K144" s="37"/>
+      <c r="L144" s="37"/>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="9"/>
@@ -15189,11 +15211,11 @@
       </c>
       <c r="H147" s="8">
         <f>G147*'IN-rates'!M$7</f>
-        <v>1336.1400000000003</v>
+        <v>0</v>
       </c>
       <c r="I147" s="8">
         <f>H147/B$109</f>
-        <v>33.403500000000008</v>
+        <v>0</v>
       </c>
       <c r="J147" s="8">
         <f t="shared" ref="J147:J154" si="56">C147*B147/G147</f>
@@ -15205,7 +15227,7 @@
       </c>
       <c r="L147" s="8">
         <f>J147*'IN-rates'!$M$7</f>
-        <v>0.91973146526561578</v>
+        <v>0</v>
       </c>
       <c r="M147" s="10">
         <f>G147/($B$105*8*$B$109)</f>
@@ -15241,11 +15263,11 @@
       </c>
       <c r="H148" s="8">
         <f>G148*'IN-rates'!M$8</f>
-        <v>674.43000000000006</v>
+        <v>0</v>
       </c>
       <c r="I148" s="8">
         <f t="shared" ref="I148:I156" si="59">H148/B$109</f>
-        <v>16.860750000000003</v>
+        <v>0</v>
       </c>
       <c r="J148" s="8">
         <f t="shared" si="56"/>
@@ -15257,7 +15279,7 @@
       </c>
       <c r="L148" s="8">
         <f>J148*'IN-rates'!$M$8</f>
-        <v>1.8221164538943997</v>
+        <v>0</v>
       </c>
       <c r="M148" s="10">
         <f t="shared" ref="M148:M156" si="60">G148/($B$105*8*$B$109)</f>
@@ -15293,11 +15315,11 @@
       </c>
       <c r="H149" s="8">
         <f>G149*'IN-rates'!M$9</f>
-        <v>453.93000000000006</v>
+        <v>0</v>
       </c>
       <c r="I149" s="8">
         <f t="shared" si="59"/>
-        <v>11.348250000000002</v>
+        <v>0</v>
       </c>
       <c r="J149" s="8">
         <f t="shared" si="56"/>
@@ -15309,7 +15331,7 @@
       </c>
       <c r="L149" s="8">
         <f>J149*'IN-rates'!$M$9</f>
-        <v>2.7076531623818649</v>
+        <v>0</v>
       </c>
       <c r="M149" s="10">
         <f t="shared" si="60"/>
@@ -15345,11 +15367,11 @@
       </c>
       <c r="H150" s="8">
         <f>G150*'IN-rates'!M$10</f>
-        <v>687.36000000000013</v>
+        <v>0</v>
       </c>
       <c r="I150" s="8">
         <f t="shared" si="59"/>
-        <v>17.184000000000005</v>
+        <v>0</v>
       </c>
       <c r="J150" s="8">
         <f t="shared" si="56"/>
@@ -15361,7 +15383,7 @@
       </c>
       <c r="L150" s="8">
         <f>J150*'IN-rates'!$M$10</f>
-        <v>7.1536312849162007</v>
+        <v>0</v>
       </c>
       <c r="M150" s="10">
         <f t="shared" si="60"/>
@@ -15397,11 +15419,11 @@
       </c>
       <c r="H151" s="8">
         <f>G151*'IN-rates'!M$11</f>
-        <v>466.86000000000007</v>
+        <v>0</v>
       </c>
       <c r="I151" s="8">
         <f t="shared" si="59"/>
-        <v>11.671500000000002</v>
+        <v>0</v>
       </c>
       <c r="J151" s="8">
         <f t="shared" si="56"/>
@@ -15413,7 +15435,7 @@
       </c>
       <c r="L151" s="8">
         <f>J151*'IN-rates'!$M$11</f>
-        <v>10.535663796427194</v>
+        <v>0</v>
       </c>
       <c r="M151" s="10">
         <f t="shared" si="60"/>
@@ -15449,11 +15471,11 @@
       </c>
       <c r="H152" s="8">
         <f>G152*'IN-rates'!M$12</f>
-        <v>534.6</v>
+        <v>0</v>
       </c>
       <c r="I152" s="8">
         <f t="shared" si="59"/>
-        <v>13.365</v>
+        <v>0</v>
       </c>
       <c r="J152" s="8">
         <f t="shared" si="56"/>
@@ -15465,7 +15487,7 @@
       </c>
       <c r="L152" s="8">
         <f>J152*'IN-rates'!$M$12</f>
-        <v>20.694949494949491</v>
+        <v>0</v>
       </c>
       <c r="M152" s="10">
         <f t="shared" si="60"/>
@@ -15501,11 +15523,11 @@
       </c>
       <c r="H153" s="8">
         <f>G153*'IN-rates'!M$13</f>
-        <v>479.79</v>
+        <v>0</v>
       </c>
       <c r="I153" s="8">
         <f t="shared" si="59"/>
-        <v>11.99475</v>
+        <v>0</v>
       </c>
       <c r="J153" s="8">
         <f t="shared" si="56"/>
@@ -15517,7 +15539,7 @@
       </c>
       <c r="L153" s="8">
         <f>J153*'IN-rates'!$M$13</f>
-        <v>23.07737760270118</v>
+        <v>0</v>
       </c>
       <c r="M153" s="10">
         <f t="shared" si="60"/>
@@ -15553,11 +15575,11 @@
       </c>
       <c r="H154" s="8">
         <f>G154*'IN-rates'!M$14</f>
-        <v>580.91999999999996</v>
+        <v>0</v>
       </c>
       <c r="I154" s="8">
         <f t="shared" si="59"/>
-        <v>14.523</v>
+        <v>0</v>
       </c>
       <c r="J154" s="8">
         <f t="shared" si="56"/>
@@ -15569,7 +15591,7 @@
       </c>
       <c r="L154" s="8">
         <f>J154*'IN-rates'!$M$14</f>
-        <v>33.88969221235282</v>
+        <v>0</v>
       </c>
       <c r="M154" s="10">
         <f t="shared" si="60"/>
@@ -15605,11 +15627,11 @@
       </c>
       <c r="H155" s="8">
         <f>G155*'IN-rates'!M$15</f>
-        <v>246.36</v>
+        <v>0</v>
       </c>
       <c r="I155" s="8">
         <f t="shared" si="59"/>
-        <v>6.1590000000000007</v>
+        <v>0</v>
       </c>
       <c r="J155" s="8">
         <f t="shared" ref="J155:J156" si="61">C155*B155/G155</f>
@@ -15621,7 +15643,7 @@
       </c>
       <c r="L155" s="8">
         <f>J155*'IN-rates'!$M$15</f>
-        <v>19.984413054067218</v>
+        <v>0</v>
       </c>
       <c r="M155" s="10">
         <f t="shared" si="60"/>
@@ -15657,11 +15679,11 @@
       </c>
       <c r="H156" s="8">
         <f>G156*'IN-rates'!M$16</f>
-        <v>112.05000000000003</v>
+        <v>2241.0000000000005</v>
       </c>
       <c r="I156" s="8">
         <f t="shared" si="59"/>
-        <v>2.8012500000000005</v>
+        <v>56.025000000000013</v>
       </c>
       <c r="J156" s="8">
         <f t="shared" si="61"/>
@@ -15673,7 +15695,7 @@
       </c>
       <c r="L156" s="8">
         <f>J156*'IN-rates'!$M$16</f>
-        <v>10.975457385095938</v>
+        <v>219.50914770191875</v>
       </c>
       <c r="M156" s="10">
         <f t="shared" si="60"/>
@@ -15684,7 +15706,7 @@
       <c r="H157" s="8"/>
       <c r="I157" s="8">
         <f>SUM(I147:I156)</f>
-        <v>139.31100000000001</v>
+        <v>56.025000000000013</v>
       </c>
       <c r="J157" s="8"/>
       <c r="K157" t="s">
@@ -15692,24 +15714,24 @@
       </c>
       <c r="L157" s="8">
         <f>SUM(L147:L156)</f>
-        <v>131.76068591205191</v>
+        <v>219.50914770191875</v>
       </c>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="33"/>
-      <c r="K159" s="33"/>
-      <c r="L159" s="33"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="37"/>
+      <c r="I159" s="37"/>
+      <c r="J159" s="37"/>
+      <c r="K159" s="37"/>
+      <c r="L159" s="37"/>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="9"/>
@@ -15784,11 +15806,11 @@
       </c>
       <c r="H162">
         <f>G162*'IN-rates'!M$7</f>
-        <v>1005.3900000000002</v>
+        <v>0</v>
       </c>
       <c r="I162" s="8">
         <f>H162/B$109</f>
-        <v>25.134750000000004</v>
+        <v>0</v>
       </c>
       <c r="J162" s="8">
         <f t="shared" ref="J162:J169" si="65">C162*B162/G162</f>
@@ -15800,7 +15822,7 @@
       </c>
       <c r="L162" s="8">
         <f>J162*'IN-rates'!$M$7</f>
-        <v>1.2224310963904554</v>
+        <v>0</v>
       </c>
       <c r="M162" s="10">
         <f>G162/($B$105*8*$B$109)</f>
@@ -15836,11 +15858,11 @@
       </c>
       <c r="H163">
         <f>G163*'IN-rates'!M$8</f>
-        <v>509.15999999999997</v>
+        <v>0</v>
       </c>
       <c r="I163" s="8">
         <f t="shared" ref="I163:I171" si="68">H163/B$109</f>
-        <v>12.728999999999999</v>
+        <v>0</v>
       </c>
       <c r="J163" s="8">
         <f t="shared" si="65"/>
@@ -15852,7 +15874,7 @@
       </c>
       <c r="L163" s="8">
         <f>J163*'IN-rates'!$M$8</f>
-        <v>2.414329483855763</v>
+        <v>0</v>
       </c>
       <c r="M163" s="10">
         <f t="shared" ref="M163:M171" si="69">G163/($B$105*8*$B$109)</f>
@@ -15888,11 +15910,11 @@
       </c>
       <c r="H164">
         <f>G164*'IN-rates'!M$9</f>
-        <v>343.68000000000006</v>
+        <v>0</v>
       </c>
       <c r="I164" s="8">
         <f t="shared" si="68"/>
-        <v>8.5920000000000023</v>
+        <v>0</v>
       </c>
       <c r="J164" s="8">
         <f t="shared" si="65"/>
@@ -15904,7 +15926,7 @@
       </c>
       <c r="L164" s="8">
         <f>J164*'IN-rates'!$M$9</f>
-        <v>3.5768156424581004</v>
+        <v>0</v>
       </c>
       <c r="M164" s="10">
         <f t="shared" si="69"/>
@@ -15940,11 +15962,11 @@
       </c>
       <c r="H165">
         <f>G165*'IN-rates'!M$10</f>
-        <v>521.88</v>
+        <v>0</v>
       </c>
       <c r="I165" s="8">
         <f t="shared" si="68"/>
-        <v>13.047000000000001</v>
+        <v>0</v>
       </c>
       <c r="J165" s="8">
         <f t="shared" si="65"/>
@@ -15956,7 +15978,7 @@
       </c>
       <c r="L165" s="8">
         <f>J165*'IN-rates'!$M$10</f>
-        <v>9.4219360772591418</v>
+        <v>0</v>
       </c>
       <c r="M165" s="10">
         <f t="shared" si="69"/>
@@ -15992,11 +16014,11 @@
       </c>
       <c r="H166">
         <f>G166*'IN-rates'!M$11</f>
-        <v>356.40000000000009</v>
+        <v>0</v>
       </c>
       <c r="I166" s="8">
         <f t="shared" si="68"/>
-        <v>8.9100000000000019</v>
+        <v>0</v>
       </c>
       <c r="J166" s="8">
         <f t="shared" si="65"/>
@@ -16008,7 +16030,7 @@
       </c>
       <c r="L166" s="8">
         <f>J166*'IN-rates'!$M$11</f>
-        <v>13.796632996632994</v>
+        <v>0</v>
       </c>
       <c r="M166" s="10">
         <f t="shared" si="69"/>
@@ -16044,11 +16066,11 @@
       </c>
       <c r="H167">
         <f>G167*'IN-rates'!M$12</f>
-        <v>410.48999999999995</v>
+        <v>0</v>
       </c>
       <c r="I167" s="8">
         <f t="shared" si="68"/>
-        <v>10.262249999999998</v>
+        <v>0</v>
       </c>
       <c r="J167" s="8">
         <f t="shared" si="65"/>
@@ -16060,7 +16082,7 @@
       </c>
       <c r="L167" s="8">
         <f>J167*'IN-rates'!$M$12</f>
-        <v>26.951984213988158</v>
+        <v>0</v>
       </c>
       <c r="M167" s="10">
         <f t="shared" si="69"/>
@@ -16096,11 +16118,11 @@
       </c>
       <c r="H168">
         <f>G168*'IN-rates'!M$13</f>
-        <v>369.53999999999996</v>
+        <v>0</v>
       </c>
       <c r="I168" s="8">
         <f t="shared" si="68"/>
-        <v>9.2384999999999984</v>
+        <v>0</v>
       </c>
       <c r="J168" s="8">
         <f t="shared" si="65"/>
@@ -16112,7 +16134,7 @@
       </c>
       <c r="L168" s="8">
         <f>J168*'IN-rates'!$M$13</f>
-        <v>29.976619581100827</v>
+        <v>0</v>
       </c>
       <c r="M168" s="10">
         <f t="shared" si="69"/>
@@ -16148,11 +16170,11 @@
       </c>
       <c r="H169">
         <f>G169*'IN-rates'!M$14</f>
-        <v>448.2000000000001</v>
+        <v>0</v>
       </c>
       <c r="I169" s="8">
         <f t="shared" si="68"/>
-        <v>11.205000000000002</v>
+        <v>0</v>
       </c>
       <c r="J169" s="8">
         <f t="shared" si="65"/>
@@ -16164,7 +16186,7 @@
       </c>
       <c r="L169" s="8">
         <f>J169*'IN-rates'!$M$14</f>
-        <v>43.901829540383751</v>
+        <v>0</v>
       </c>
       <c r="M169" s="10">
         <f t="shared" si="69"/>
@@ -16200,11 +16222,11 @@
       </c>
       <c r="H170">
         <f>G170*'IN-rates'!M$15</f>
-        <v>190.92000000000004</v>
+        <v>0</v>
       </c>
       <c r="I170" s="8">
         <f t="shared" si="68"/>
-        <v>4.7730000000000015</v>
+        <v>0</v>
       </c>
       <c r="J170" s="8">
         <f t="shared" ref="J170:J171" si="70">C170*B170/G170</f>
@@ -16216,7 +16238,7 @@
       </c>
       <c r="L170" s="8">
         <f>J170*'IN-rates'!$M$15</f>
-        <v>25.754871150219987</v>
+        <v>0</v>
       </c>
       <c r="M170" s="10">
         <f t="shared" si="69"/>
@@ -16252,11 +16274,11 @@
       </c>
       <c r="H171">
         <f>G171*'IN-rates'!M$16</f>
-        <v>87.48</v>
+        <v>1749.6</v>
       </c>
       <c r="I171" s="8">
         <f t="shared" si="68"/>
-        <v>2.1870000000000003</v>
+        <v>43.739999999999995</v>
       </c>
       <c r="J171" s="8">
         <f t="shared" si="70"/>
@@ -16268,7 +16290,7 @@
       </c>
       <c r="L171" s="8">
         <f>J171*'IN-rates'!$M$16</f>
-        <v>14.080475537265663</v>
+        <v>281.60951074531323</v>
       </c>
       <c r="M171" s="10">
         <f t="shared" si="69"/>
@@ -16278,7 +16300,7 @@
     <row r="172" spans="1:13">
       <c r="I172" s="8">
         <f>SUM(I162:I171)</f>
-        <v>106.07849999999999</v>
+        <v>43.739999999999995</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" t="s">
@@ -16286,7 +16308,7 @@
       </c>
       <c r="L172" s="8">
         <f>SUM(L162:L171)</f>
-        <v>171.09792531955486</v>
+        <v>281.60951074531323</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -16294,14 +16316,14 @@
       <c r="K173" s="11"/>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="29" t="s">
+      <c r="A174" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="29"/>
-      <c r="E174" s="29"/>
-      <c r="F174" s="29"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
     </row>
     <row r="175" spans="1:13">
       <c r="B175" t="s">
@@ -16326,22 +16348,22 @@
       </c>
       <c r="B176" s="8">
         <f>L126</f>
-        <v>46.399376536586132</v>
+        <v>79.012952785009489</v>
       </c>
       <c r="C176" s="11">
         <f>1-C177</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D176" s="12">
         <v>0</v>
       </c>
       <c r="E176" s="13">
         <f>B176</f>
-        <v>46.399376536586132</v>
+        <v>79.012952785009489</v>
       </c>
       <c r="F176" s="13">
         <f>E176*C176</f>
-        <v>37.119501229268906</v>
+        <v>79.012952785009489</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -16350,23 +16372,23 @@
       </c>
       <c r="B177" s="8">
         <f>L126</f>
-        <v>46.399376536586132</v>
+        <v>79.012952785009489</v>
       </c>
       <c r="C177" s="11">
-        <f>'IN-client'!C27</f>
-        <v>0.2</v>
+        <f>'IN-client'!B29</f>
+        <v>0</v>
       </c>
       <c r="D177" s="12">
-        <f>'IN-client'!C28</f>
+        <f>'IN-client'!B30</f>
         <v>3</v>
       </c>
       <c r="E177" s="13">
         <f>B176*D177</f>
-        <v>139.19812960975838</v>
+        <v>237.03885835502848</v>
       </c>
       <c r="F177" s="13">
         <f>E177*C177</f>
-        <v>27.839625921951679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -16376,7 +16398,7 @@
       <c r="E178" s="13"/>
       <c r="F178" s="13">
         <f>SUM(F176:F177)</f>
-        <v>64.959127151220585</v>
+        <v>79.012952785009489</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -16388,22 +16410,22 @@
       </c>
       <c r="B180" s="8">
         <f>L142</f>
-        <v>90.248311236129979</v>
+        <v>152.03003337041156</v>
       </c>
       <c r="C180" s="1">
         <f>1-C177</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180" s="13">
         <f>B180</f>
-        <v>90.248311236129979</v>
+        <v>152.03003337041156</v>
       </c>
       <c r="F180" s="13">
         <f>E180*C180</f>
-        <v>72.198648988903983</v>
+        <v>152.03003337041156</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -16412,23 +16434,23 @@
       </c>
       <c r="B181" s="8">
         <f>L142</f>
-        <v>90.248311236129979</v>
+        <v>152.03003337041156</v>
       </c>
       <c r="C181" s="1">
         <f>C177</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D181">
-        <f>IF('IN-client'!C28-2&gt;0,'IN-client'!C28-2,0)</f>
+        <f>IF('IN-client'!B30-2&gt;0,'IN-client'!B30-2,0)</f>
         <v>1</v>
       </c>
       <c r="E181" s="13">
         <f>B180*D181+B181</f>
-        <v>180.49662247225996</v>
+        <v>304.06006674082312</v>
       </c>
       <c r="F181" s="13">
         <f>E181*C181</f>
-        <v>36.099324494451992</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
         <v>215</v>
@@ -16440,7 +16462,7 @@
       <c r="E182" s="13"/>
       <c r="F182" s="13">
         <f>SUM(F180:F181)</f>
-        <v>108.29797348335597</v>
+        <v>152.03003337041156</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -16455,22 +16477,22 @@
       </c>
       <c r="B184" s="8">
         <f>L157</f>
-        <v>131.76068591205191</v>
+        <v>219.50914770191875</v>
       </c>
       <c r="C184" s="1">
         <f>1-C185</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184" s="13">
         <f>B184</f>
-        <v>131.76068591205191</v>
+        <v>219.50914770191875</v>
       </c>
       <c r="F184" s="13">
         <f>B184*C184</f>
-        <v>105.40854872964154</v>
+        <v>219.50914770191875</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -16479,23 +16501,23 @@
       </c>
       <c r="B185" s="8">
         <f>B184</f>
-        <v>131.76068591205191</v>
+        <v>219.50914770191875</v>
       </c>
       <c r="C185" s="1">
         <f>C177</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <f>IF('IN-client'!C28-3&gt;0,'IN-client'!C28-3,0)</f>
+        <f>IF('IN-client'!B30-3&gt;0,'IN-client'!B30-3,0)</f>
         <v>0</v>
       </c>
       <c r="E185" s="13">
         <f>B184*D185+B185</f>
-        <v>131.76068591205191</v>
+        <v>219.50914770191875</v>
       </c>
       <c r="F185" s="13">
         <f>E185*C185</f>
-        <v>26.352137182410384</v>
+        <v>0</v>
       </c>
       <c r="G185" t="s">
         <v>291</v>
@@ -16507,7 +16529,7 @@
       <c r="E186" s="13"/>
       <c r="F186" s="13">
         <f>SUM(F184:F185)</f>
-        <v>131.76068591205191</v>
+        <v>219.50914770191875</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -16517,23 +16539,23 @@
       <c r="F187" s="13"/>
     </row>
     <row r="188" spans="1:13">
-      <c r="A188" s="29" t="s">
+      <c r="A188" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="29"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="33"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="33"/>
       <c r="F188" s="21"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="31" t="s">
+      <c r="H188" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="I188" s="31"/>
-      <c r="J188" s="31"/>
-      <c r="K188" s="31"/>
-      <c r="L188" s="31"/>
-      <c r="M188" s="31"/>
+      <c r="I188" s="36"/>
+      <c r="J188" s="36"/>
+      <c r="K188" s="36"/>
+      <c r="L188" s="36"/>
+      <c r="M188" s="36"/>
     </row>
     <row r="189" spans="1:13">
       <c r="B189" s="8" t="s">
@@ -16569,19 +16591,19 @@
       </c>
       <c r="B190" s="8">
         <f>F178</f>
-        <v>64.959127151220585</v>
+        <v>79.012952785009489</v>
       </c>
       <c r="C190" s="8">
         <f>B190*2.1</f>
-        <v>136.41416701756324</v>
+        <v>165.92720084851993</v>
       </c>
       <c r="D190" s="8">
         <f>B190*4.5</f>
-        <v>292.31607218049265</v>
+        <v>355.55828753254269</v>
       </c>
       <c r="E190" s="8">
         <f>B190*9</f>
-        <v>584.63214436098531</v>
+        <v>711.11657506508539</v>
       </c>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
@@ -16589,19 +16611,19 @@
         <v>0</v>
       </c>
       <c r="J190" s="20">
-        <f>'IN-client'!G20*'IN-client'!C20</f>
-        <v>3.7499999999999999E-2</v>
+        <f>'IN-client'!G22*'IN-client'!C22</f>
+        <v>0</v>
       </c>
       <c r="K190" s="20">
-        <f>'IN-client'!G21*'IN-client'!C20</f>
-        <v>8.2500000000000004E-2</v>
+        <f>'IN-client'!G23*'IN-client'!C22</f>
+        <v>0</v>
       </c>
       <c r="L190" s="1">
-        <f>'IN-client'!G22*'IN-client'!C20</f>
-        <v>0.03</v>
+        <f>'IN-client'!G24*'IN-client'!C22</f>
+        <v>0.41176470588235292</v>
       </c>
       <c r="M190" s="1">
-        <f>'IN-client'!G23*'IN-client'!C20</f>
+        <f>'IN-client'!G25*'IN-client'!C22</f>
         <v>0</v>
       </c>
     </row>
@@ -16611,19 +16633,19 @@
       </c>
       <c r="B191" s="8">
         <f>F182</f>
-        <v>108.29797348335597</v>
+        <v>152.03003337041156</v>
       </c>
       <c r="C191" s="8">
         <f t="shared" ref="C191:C193" si="72">B191*2.1</f>
-        <v>227.42574431504755</v>
+        <v>319.26307007786431</v>
       </c>
       <c r="D191" s="8">
         <f t="shared" ref="D191:D193" si="73">B191*4.5</f>
-        <v>487.34088067510186</v>
+        <v>684.13515016685199</v>
       </c>
       <c r="E191" s="8">
         <f t="shared" ref="E191:E193" si="74">B191*9</f>
-        <v>974.68176135020371</v>
+        <v>1368.270300333704</v>
       </c>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
@@ -16631,19 +16653,19 @@
         <v>1</v>
       </c>
       <c r="J191" s="20">
-        <f>'IN-client'!G20*'IN-client'!C21</f>
-        <v>0.1125</v>
+        <f>'IN-client'!G22*'IN-client'!C23</f>
+        <v>0</v>
       </c>
       <c r="K191" s="20">
-        <f>'IN-client'!G21*'IN-client'!C21</f>
-        <v>0.24750000000000003</v>
+        <f>'IN-client'!G23*'IN-client'!C23</f>
+        <v>0</v>
       </c>
       <c r="L191" s="1">
-        <f>'IN-client'!G22*'IN-client'!C21</f>
-        <v>9.0000000000000011E-2</v>
+        <f>'IN-client'!G24*'IN-client'!C23</f>
+        <v>0.23529411764705882</v>
       </c>
       <c r="M191" s="1">
-        <f>'IN-client'!G23*'IN-client'!C21</f>
+        <f>'IN-client'!G25*'IN-client'!C23</f>
         <v>0</v>
       </c>
     </row>
@@ -16653,19 +16675,19 @@
       </c>
       <c r="B192" s="8">
         <f>F186</f>
-        <v>131.76068591205191</v>
+        <v>219.50914770191875</v>
       </c>
       <c r="C192" s="8">
         <f t="shared" si="72"/>
-        <v>276.69744041530902</v>
+        <v>460.9692101740294</v>
       </c>
       <c r="D192" s="8">
         <f t="shared" si="73"/>
-        <v>592.92308660423362</v>
+        <v>987.79116465863433</v>
       </c>
       <c r="E192" s="8">
         <f t="shared" si="74"/>
-        <v>1185.8461732084672</v>
+        <v>1975.5823293172687</v>
       </c>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
@@ -16673,19 +16695,19 @@
         <v>2</v>
       </c>
       <c r="J192" s="20">
-        <f>'IN-client'!G20*'IN-client'!C22</f>
-        <v>8.7499999999999994E-2</v>
+        <f>'IN-client'!G22*'IN-client'!C24</f>
+        <v>0</v>
       </c>
       <c r="K192" s="20">
-        <f>'IN-client'!G21*'IN-client'!C22</f>
-        <v>0.1925</v>
+        <f>'IN-client'!G23*'IN-client'!C24</f>
+        <v>0</v>
       </c>
       <c r="L192" s="1">
-        <f>'IN-client'!G22*'IN-client'!C22</f>
-        <v>6.9999999999999993E-2</v>
+        <f>'IN-client'!G24*'IN-client'!C24</f>
+        <v>0.23529411764705882</v>
       </c>
       <c r="M192" s="1">
-        <f>'IN-client'!G23*'IN-client'!C22</f>
+        <f>'IN-client'!G25*'IN-client'!C24</f>
         <v>0</v>
       </c>
     </row>
@@ -16695,19 +16717,19 @@
       </c>
       <c r="B193" s="8">
         <f>L172</f>
-        <v>171.09792531955486</v>
+        <v>281.60951074531323</v>
       </c>
       <c r="C193" s="8">
         <f t="shared" si="72"/>
-        <v>359.30564317106524</v>
+        <v>591.3799725651578</v>
       </c>
       <c r="D193" s="8">
         <f t="shared" si="73"/>
-        <v>769.94066393799687</v>
+        <v>1267.2427983539096</v>
       </c>
       <c r="E193" s="8">
         <f t="shared" si="74"/>
-        <v>1539.8813278759937</v>
+        <v>2534.4855967078192</v>
       </c>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
@@ -16715,19 +16737,19 @@
         <v>3</v>
       </c>
       <c r="J193" s="20">
-        <f>'IN-client'!G20*'IN-client'!C23</f>
-        <v>1.2500000000000001E-2</v>
+        <f>'IN-client'!G22*'IN-client'!C25</f>
+        <v>0</v>
       </c>
       <c r="K193" s="20">
-        <f>'IN-client'!G21*'IN-client'!C23</f>
-        <v>2.7500000000000004E-2</v>
+        <f>'IN-client'!G23*'IN-client'!C25</f>
+        <v>0</v>
       </c>
       <c r="L193" s="1">
-        <f>'IN-client'!G22*'IN-client'!C23</f>
-        <v>1.0000000000000002E-2</v>
+        <f>'IN-client'!G24*'IN-client'!C25</f>
+        <v>0.11764705882352941</v>
       </c>
       <c r="M193" s="1">
-        <f>'IN-client'!G23*'IN-client'!C23</f>
+        <f>'IN-client'!G25*'IN-client'!C25</f>
         <v>0</v>
       </c>
     </row>
@@ -16744,14 +16766,14 @@
       <c r="L194" s="1"/>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="28" t="s">
+      <c r="A195" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="B195" s="28"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="28"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
       <c r="H195" s="23"/>
       <c r="I195" s="23"/>
       <c r="J195" s="23"/>
@@ -16789,15 +16811,15 @@
       </c>
       <c r="B197" s="8">
         <f t="shared" ref="B197:E200" si="75">B190*J190</f>
-        <v>2.435967268170772</v>
+        <v>0</v>
       </c>
       <c r="C197" s="8">
         <f t="shared" si="75"/>
-        <v>11.254168778948967</v>
+        <v>0</v>
       </c>
       <c r="D197" s="8">
         <f t="shared" si="75"/>
-        <v>8.7694821654147788</v>
+        <v>146.40635368987051</v>
       </c>
       <c r="E197" s="8">
         <f t="shared" si="75"/>
@@ -16805,7 +16827,7 @@
       </c>
       <c r="F197" s="13">
         <f>SUM(B197:E197)</f>
-        <v>22.459618212534519</v>
+        <v>146.40635368987051</v>
       </c>
       <c r="G197" s="11"/>
       <c r="J197" s="8"/>
@@ -16820,15 +16842,15 @@
       </c>
       <c r="B198" s="8">
         <f t="shared" si="75"/>
-        <v>12.183522016877548</v>
+        <v>0</v>
       </c>
       <c r="C198" s="8">
         <f t="shared" si="75"/>
-        <v>56.287871717974276</v>
+        <v>0</v>
       </c>
       <c r="D198" s="8">
         <f t="shared" si="75"/>
-        <v>43.86067926075917</v>
+        <v>160.97297650984751</v>
       </c>
       <c r="E198" s="8">
         <f t="shared" si="75"/>
@@ -16836,7 +16858,7 @@
       </c>
       <c r="F198" s="13">
         <f t="shared" ref="F198:F200" si="76">SUM(B198:E198)</f>
-        <v>112.332072995611</v>
+        <v>160.97297650984751</v>
       </c>
       <c r="G198" s="11"/>
       <c r="J198" s="8"/>
@@ -16851,15 +16873,15 @@
       </c>
       <c r="B199" s="8">
         <f t="shared" si="75"/>
-        <v>11.529060017304541</v>
+        <v>0</v>
       </c>
       <c r="C199" s="8">
         <f t="shared" si="75"/>
-        <v>53.264257279946989</v>
+        <v>0</v>
       </c>
       <c r="D199" s="8">
         <f t="shared" si="75"/>
-        <v>41.50461606229635</v>
+        <v>232.42145050791396</v>
       </c>
       <c r="E199" s="8">
         <f t="shared" si="75"/>
@@ -16867,7 +16889,7 @@
       </c>
       <c r="F199" s="13">
         <f t="shared" si="76"/>
-        <v>106.29793335954788</v>
+        <v>232.42145050791396</v>
       </c>
       <c r="G199" s="11"/>
       <c r="J199" s="8"/>
@@ -16882,15 +16904,15 @@
       </c>
       <c r="B200" s="8">
         <f t="shared" si="75"/>
-        <v>2.138724066494436</v>
+        <v>0</v>
       </c>
       <c r="C200" s="8">
         <f t="shared" si="75"/>
-        <v>9.880905187204295</v>
+        <v>0</v>
       </c>
       <c r="D200" s="8">
         <f t="shared" si="75"/>
-        <v>7.6994066393799701</v>
+        <v>149.08738804163642</v>
       </c>
       <c r="E200" s="8">
         <f t="shared" si="75"/>
@@ -16898,7 +16920,7 @@
       </c>
       <c r="F200" s="13">
         <f t="shared" si="76"/>
-        <v>19.719035893078701</v>
+        <v>149.08738804163642</v>
       </c>
       <c r="G200" s="11"/>
       <c r="J200" s="8"/>
@@ -16913,15 +16935,15 @@
       </c>
       <c r="B201" s="8">
         <f>SUM(B197:B200)</f>
-        <v>28.287273368847298</v>
+        <v>0</v>
       </c>
       <c r="C201" s="8">
         <f t="shared" ref="C201:E201" si="77">SUM(C197:C200)</f>
-        <v>130.68720296407454</v>
+        <v>0</v>
       </c>
       <c r="D201" s="8">
         <f t="shared" si="77"/>
-        <v>101.83418412785026</v>
+        <v>688.88816874926829</v>
       </c>
       <c r="E201" s="8">
         <f t="shared" si="77"/>
@@ -16929,7 +16951,7 @@
       </c>
       <c r="F201" s="13">
         <f>SUM(B197:E200)</f>
-        <v>260.80866046077205</v>
+        <v>688.88816874926829</v>
       </c>
       <c r="G201" s="11"/>
       <c r="J201" s="8"/>
@@ -16946,13 +16968,13 @@
       <c r="G202" s="11"/>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="28" t="s">
+      <c r="A203" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="B203" s="28"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="28"/>
-      <c r="E203" s="28"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
     </row>
     <row r="204" spans="1:14">
       <c r="B204" s="8" t="s">
@@ -16977,19 +16999,19 @@
       </c>
       <c r="B205" s="8">
         <f>L126</f>
-        <v>46.399376536586132</v>
+        <v>79.012952785009489</v>
       </c>
       <c r="C205" s="8">
         <f>B205*2.1</f>
-        <v>97.438690726830885</v>
+        <v>165.92720084851993</v>
       </c>
       <c r="D205" s="8">
         <f>B205*4.5</f>
-        <v>208.7971944146376</v>
+        <v>355.55828753254269</v>
       </c>
       <c r="E205" s="8">
         <f>B205*9</f>
-        <v>417.5943888292752</v>
+        <v>711.11657506508539</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -16998,19 +17020,19 @@
       </c>
       <c r="B206" s="8">
         <f>F178</f>
-        <v>64.959127151220585</v>
+        <v>79.012952785009489</v>
       </c>
       <c r="C206" s="8">
         <f>B206*2.1</f>
-        <v>136.41416701756324</v>
+        <v>165.92720084851993</v>
       </c>
       <c r="D206" s="8">
         <f>B206*4.5</f>
-        <v>292.31607218049265</v>
+        <v>355.55828753254269</v>
       </c>
       <c r="E206" s="8">
         <f>B206*9</f>
-        <v>584.63214436098531</v>
+        <v>711.11657506508539</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -17019,23 +17041,23 @@
       </c>
       <c r="B207" s="8">
         <f>B206-B205</f>
-        <v>18.559750614634453</v>
+        <v>0</v>
       </c>
       <c r="C207" s="8">
         <f t="shared" ref="C207:E207" si="78">C206-C205</f>
-        <v>38.97547629073236</v>
+        <v>0</v>
       </c>
       <c r="D207" s="8">
         <f t="shared" si="78"/>
-        <v>83.518877765855052</v>
+        <v>0</v>
       </c>
       <c r="E207" s="8">
         <f t="shared" si="78"/>
-        <v>167.0377555317101</v>
+        <v>0</v>
       </c>
       <c r="F207" s="8">
         <f>SUM(B207:E207)</f>
-        <v>308.09186020293197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -17044,15 +17066,15 @@
       </c>
       <c r="B208" s="8">
         <f>B207*J190</f>
-        <v>0.69599064804879196</v>
+        <v>0</v>
       </c>
       <c r="C208" s="8">
         <f t="shared" ref="C208:E208" si="79">C207*K190</f>
-        <v>3.2154767939854199</v>
+        <v>0</v>
       </c>
       <c r="D208" s="8">
         <f t="shared" si="79"/>
-        <v>2.5055663329756515</v>
+        <v>0</v>
       </c>
       <c r="E208" s="8">
         <f t="shared" si="79"/>
@@ -17060,7 +17082,7 @@
       </c>
       <c r="F208" s="8">
         <f>SUM(B208:E208)</f>
-        <v>6.4170337750098634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -17075,19 +17097,19 @@
       </c>
       <c r="B210" s="8">
         <f>L142</f>
-        <v>90.248311236129979</v>
+        <v>152.03003337041156</v>
       </c>
       <c r="C210" s="8">
         <f>B210*2.1</f>
-        <v>189.52145359587297</v>
+        <v>319.26307007786431</v>
       </c>
       <c r="D210" s="8">
         <f>B210*4.5</f>
-        <v>406.11740056258492</v>
+        <v>684.13515016685199</v>
       </c>
       <c r="E210" s="8">
         <f>B210*9</f>
-        <v>812.23480112516984</v>
+        <v>1368.270300333704</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -17096,19 +17118,19 @@
       </c>
       <c r="B211" s="8">
         <f>F182</f>
-        <v>108.29797348335597</v>
+        <v>152.03003337041156</v>
       </c>
       <c r="C211" s="8">
         <f>B211*2.1</f>
-        <v>227.42574431504755</v>
+        <v>319.26307007786431</v>
       </c>
       <c r="D211" s="8">
         <f>B211*4.5</f>
-        <v>487.34088067510186</v>
+        <v>684.13515016685199</v>
       </c>
       <c r="E211" s="8">
         <f>B211*9</f>
-        <v>974.68176135020371</v>
+        <v>1368.270300333704</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -17117,23 +17139,23 @@
       </c>
       <c r="B212" s="8">
         <f>B211-B210</f>
-        <v>18.049662247225996</v>
+        <v>0</v>
       </c>
       <c r="C212" s="8">
         <f t="shared" ref="C212:E212" si="80">C211-C210</f>
-        <v>37.904290719174583</v>
+        <v>0</v>
       </c>
       <c r="D212" s="8">
         <f t="shared" si="80"/>
-        <v>81.223480112516938</v>
+        <v>0</v>
       </c>
       <c r="E212" s="8">
         <f t="shared" si="80"/>
-        <v>162.44696022503388</v>
+        <v>0</v>
       </c>
       <c r="F212" s="8">
         <f>SUM(B212:E212)</f>
-        <v>299.62439330395136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -17142,15 +17164,15 @@
       </c>
       <c r="B213" s="8">
         <f>B212*J191</f>
-        <v>2.0305870028129247</v>
+        <v>0</v>
       </c>
       <c r="C213" s="8">
         <f t="shared" ref="C213:E213" si="81">C212*K191</f>
-        <v>9.381311952995711</v>
+        <v>0</v>
       </c>
       <c r="D213" s="8">
         <f t="shared" si="81"/>
-        <v>7.3101132101265254</v>
+        <v>0</v>
       </c>
       <c r="E213" s="8">
         <f t="shared" si="81"/>
@@ -17158,7 +17180,7 @@
       </c>
       <c r="F213" s="8">
         <f>SUM(B213:E213)</f>
-        <v>18.722012165935162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -17173,19 +17195,19 @@
       </c>
       <c r="B215" s="8">
         <f>L157</f>
-        <v>131.76068591205191</v>
+        <v>219.50914770191875</v>
       </c>
       <c r="C215" s="8">
         <f>B215*2.1</f>
-        <v>276.69744041530902</v>
+        <v>460.9692101740294</v>
       </c>
       <c r="D215" s="8">
         <f>B215*4.5</f>
-        <v>592.92308660423362</v>
+        <v>987.79116465863433</v>
       </c>
       <c r="E215" s="8">
         <f>B215*9</f>
-        <v>1185.8461732084672</v>
+        <v>1975.5823293172687</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -17194,19 +17216,19 @@
       </c>
       <c r="B216" s="8">
         <f>F186</f>
-        <v>131.76068591205191</v>
+        <v>219.50914770191875</v>
       </c>
       <c r="C216" s="8">
         <f>B216*2.1</f>
-        <v>276.69744041530902</v>
+        <v>460.9692101740294</v>
       </c>
       <c r="D216" s="8">
         <f>B216*4.5</f>
-        <v>592.92308660423362</v>
+        <v>987.79116465863433</v>
       </c>
       <c r="E216" s="8">
         <f>B216*9</f>
-        <v>1185.8461732084672</v>
+        <v>1975.5823293172687</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -17268,15 +17290,15 @@
       </c>
       <c r="B220" s="8">
         <f>B208+B213+B218</f>
-        <v>2.7265776508617168</v>
+        <v>0</v>
       </c>
       <c r="C220" s="8">
         <f t="shared" ref="C220:E220" si="83">C208+C213+C218</f>
-        <v>12.596788746981131</v>
+        <v>0</v>
       </c>
       <c r="D220" s="8">
         <f t="shared" si="83"/>
-        <v>9.8156795431021777</v>
+        <v>0</v>
       </c>
       <c r="E220" s="8">
         <f t="shared" si="83"/>
@@ -17284,18 +17306,12 @@
       </c>
       <c r="F220" s="8">
         <f>SUM(B220:E220)</f>
-        <v>25.139045940945024</v>
+        <v>0</v>
       </c>
       <c r="G220" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A73:L73"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="E86:G86"/>
     <mergeCell ref="A188:E188"/>
     <mergeCell ref="H188:M188"/>
     <mergeCell ref="A195:F195"/>
@@ -17306,6 +17322,12 @@
     <mergeCell ref="A144:L144"/>
     <mergeCell ref="A159:L159"/>
     <mergeCell ref="A174:F174"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A73:L73"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="E86:G86"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17367,28 +17389,28 @@
       </c>
       <c r="B8">
         <f>'RESULT-t''put'!D34</f>
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12">
         <f>B8</f>
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -17425,7 +17447,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="38" t="s">
         <v>283</v>
       </c>
       <c r="B13" s="1">
@@ -17433,427 +17455,427 @@
       </c>
       <c r="C13" s="8">
         <f t="dataTable" ref="C13:M23" dt2D="1" dtr="1" r1="B4" r2="B5"/>
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D13" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E13" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F13" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G13" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H13" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I13" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J13" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K13" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L13" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M13" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="34"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="1">
         <v>0.1</v>
       </c>
       <c r="C14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M14" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="34"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="1">
         <v>0.2</v>
       </c>
       <c r="C15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M15" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="34"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="1">
         <v>0.3</v>
       </c>
       <c r="C16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M16" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="34"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="1">
         <v>0.4</v>
       </c>
       <c r="C17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M17" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="34"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="1">
         <v>0.5</v>
       </c>
       <c r="C18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M18" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="34"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="1">
         <v>0.6</v>
       </c>
       <c r="C19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M19" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="34"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="1">
         <v>0.7</v>
       </c>
       <c r="C20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M20" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="34"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="1">
         <v>0.8</v>
       </c>
       <c r="C21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M21" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="34"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="1">
         <v>0.9</v>
       </c>
       <c r="C22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M22" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="34"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M23" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -18445,24 +18467,24 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
     </row>
     <row r="39" spans="1:13">
       <c r="B39">
         <f>B8</f>
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -18499,7 +18521,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="38" t="s">
         <v>284</v>
       </c>
       <c r="B40" s="1">
@@ -18507,427 +18529,427 @@
       </c>
       <c r="C40" s="8">
         <f t="dataTable" ref="C40:M50" dt2D="1" dtr="1" r1="B5" r2="B4"/>
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D40" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E40" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F40" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G40" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H40" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I40" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J40" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K40" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L40" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M40" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="34"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="1">
         <v>0.1</v>
       </c>
       <c r="C41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M41" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="34"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="1">
         <v>0.2</v>
       </c>
       <c r="C42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M42" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="34"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="1">
         <v>0.3</v>
       </c>
       <c r="C43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M43" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="34"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="1">
         <v>0.4</v>
       </c>
       <c r="C44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M44" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="34"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="1">
         <v>0.5</v>
       </c>
       <c r="C45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M45" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="34"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="1">
         <v>0.6</v>
       </c>
       <c r="C46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M46" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="34"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="1">
         <v>0.7</v>
       </c>
       <c r="C47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M47" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="34"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="1">
         <v>0.8</v>
       </c>
       <c r="C48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M48" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="34"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="1">
         <v>0.9</v>
       </c>
       <c r="C49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="34"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="D50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="E50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="F50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="G50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="H50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="I50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="J50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="L50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="M50" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -19563,7 +19585,7 @@
       </c>
       <c r="B7">
         <f>'RESULT-t''put'!D34</f>
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19572,7 +19594,7 @@
       </c>
       <c r="B9">
         <f>B7</f>
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C9" t="s">
         <v>309</v>
@@ -19587,11 +19609,11 @@
       </c>
       <c r="B10" s="8">
         <f t="dataTable" ref="B10:B59" dt2D="0" dtr="0" r1="B4"/>
-        <v>67.856171293013489</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C10" s="11">
         <f>B10/MAX(B$10:B$59)</f>
-        <v>0.35732125516528856</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -19599,15 +19621,15 @@
         <v>2</v>
       </c>
       <c r="B11" s="8">
-        <v>97.637000968992865</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" ref="C11:C59" si="0">B11/MAX(B$10:B$59)</f>
-        <v>0.51414300382737765</v>
+        <v>1</v>
       </c>
       <c r="D11" s="19">
         <f>C11-C10</f>
-        <v>0.15682174866208909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -19615,15 +19637,15 @@
         <v>3</v>
       </c>
       <c r="B12" s="8">
-        <v>115.57387022105408</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C12" s="11">
         <f t="shared" si="0"/>
-        <v>0.60859608764795092</v>
+        <v>1</v>
       </c>
       <c r="D12" s="19">
         <f t="shared" ref="D12:D59" si="1">C12-C11</f>
-        <v>9.4453083820573269E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19631,15 +19653,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="8">
-        <v>127.98023284674041</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C13" s="11">
         <f t="shared" si="0"/>
-        <v>0.6739262850489115</v>
+        <v>1</v>
       </c>
       <c r="D13" s="19">
         <f t="shared" si="1"/>
-        <v>6.5330197400960577E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -19647,15 +19669,15 @@
         <v>5</v>
       </c>
       <c r="B14" s="8">
-        <v>136.9781146429315</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C14" s="11">
         <f t="shared" si="0"/>
-        <v>0.72130789170279197</v>
+        <v>1</v>
       </c>
       <c r="D14" s="19">
         <f t="shared" si="1"/>
-        <v>4.738160665388047E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -19663,15 +19685,15 @@
         <v>6</v>
       </c>
       <c r="B15" s="8">
-        <v>143.98190369392927</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
-        <v>0.75818888051969413</v>
+        <v>1</v>
       </c>
       <c r="D15" s="19">
         <f t="shared" si="1"/>
-        <v>3.688098881690216E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -19679,15 +19701,15 @@
         <v>7</v>
       </c>
       <c r="B16" s="8">
-        <v>149.48540615245724</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="0"/>
-        <v>0.78716956670952842</v>
+        <v>1</v>
       </c>
       <c r="D16" s="19">
         <f t="shared" si="1"/>
-        <v>2.8980686189834293E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19695,15 +19717,15 @@
         <v>8</v>
       </c>
       <c r="B17" s="8">
-        <v>154.13040421061947</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" si="0"/>
-        <v>0.81162948693131298</v>
+        <v>1</v>
       </c>
       <c r="D17" s="19">
         <f t="shared" si="1"/>
-        <v>2.4459920221784559E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19711,15 +19733,15 @@
         <v>9</v>
       </c>
       <c r="B18" s="8">
-        <v>157.82561674666434</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="0"/>
-        <v>0.83108796736606172</v>
+        <v>1</v>
       </c>
       <c r="D18" s="19">
         <f t="shared" si="1"/>
-        <v>1.9458480434748737E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -19727,15 +19749,15 @@
         <v>10</v>
       </c>
       <c r="B19" s="8">
-        <v>161.01119359968459</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="0"/>
-        <v>0.84786277646384356</v>
+        <v>1</v>
       </c>
       <c r="D19" s="19">
         <f t="shared" si="1"/>
-        <v>1.677480909778184E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -19743,15 +19765,15 @@
         <v>11</v>
       </c>
       <c r="B20" s="8">
-        <v>163.71222972802556</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="0"/>
-        <v>0.86208606082007366</v>
+        <v>1</v>
       </c>
       <c r="D20" s="19">
         <f t="shared" si="1"/>
-        <v>1.4223284356230104E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -19759,15 +19781,15 @@
         <v>12</v>
       </c>
       <c r="B21" s="8">
-        <v>166.11262135009585</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="0"/>
-        <v>0.87472619260090556</v>
+        <v>1</v>
       </c>
       <c r="D21" s="19">
         <f t="shared" si="1"/>
-        <v>1.2640131780831898E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -19775,15 +19797,15 @@
         <v>13</v>
       </c>
       <c r="B22" s="8">
-        <v>168.17693785787742</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="0"/>
-        <v>0.88559659910282507</v>
+        <v>1</v>
       </c>
       <c r="D22" s="19">
         <f t="shared" si="1"/>
-        <v>1.0870406501919505E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -19791,15 +19813,15 @@
         <v>14</v>
       </c>
       <c r="B23" s="8">
-        <v>169.9760508699888</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C23" s="11">
         <f t="shared" si="0"/>
-        <v>0.89507048051142779</v>
+        <v>1</v>
       </c>
       <c r="D23" s="19">
         <f t="shared" si="1"/>
-        <v>9.4738814086027245E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -19807,15 +19829,15 @@
         <v>15</v>
       </c>
       <c r="B24" s="8">
-        <v>171.60178471574238</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C24" s="11">
         <f t="shared" si="0"/>
-        <v>0.9036313711019226</v>
+        <v>1</v>
       </c>
       <c r="D24" s="19">
         <f t="shared" si="1"/>
-        <v>8.5608905904948074E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -19823,15 +19845,15 @@
         <v>16</v>
       </c>
       <c r="B25" s="8">
-        <v>173.0965476848524</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C25" s="11">
         <f t="shared" si="0"/>
-        <v>0.91150258708890497</v>
+        <v>1</v>
       </c>
       <c r="D25" s="19">
         <f t="shared" si="1"/>
-        <v>7.8712159869823717E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -19839,15 +19861,15 @@
         <v>17</v>
       </c>
       <c r="B26" s="8">
-        <v>174.3568138323372</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C26" s="11">
         <f t="shared" si="0"/>
-        <v>0.91813897510020381</v>
+        <v>1</v>
       </c>
       <c r="D26" s="19">
         <f t="shared" si="1"/>
-        <v>6.6363880112988438E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -19855,15 +19877,15 @@
         <v>18</v>
       </c>
       <c r="B27" s="8">
-        <v>175.54839583827035</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C27" s="11">
         <f t="shared" si="0"/>
-        <v>0.92441368187895545</v>
+        <v>1</v>
       </c>
       <c r="D27" s="19">
         <f t="shared" si="1"/>
-        <v>6.2747067787516375E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -19871,15 +19893,15 @@
         <v>19</v>
       </c>
       <c r="B28" s="8">
-        <v>176.63356759538965</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C28" s="11">
         <f t="shared" si="0"/>
-        <v>0.93012804693868456</v>
+        <v>1</v>
       </c>
       <c r="D28" s="19">
         <f t="shared" si="1"/>
-        <v>5.7143650597291096E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -19887,15 +19909,15 @@
         <v>20</v>
       </c>
       <c r="B29" s="8">
-        <v>177.61035618920778</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C29" s="11">
         <f t="shared" si="0"/>
-        <v>0.93527168118334414</v>
+        <v>1</v>
       </c>
       <c r="D29" s="19">
         <f t="shared" si="1"/>
-        <v>5.1436342446595784E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -19903,15 +19925,15 @@
         <v>21</v>
       </c>
       <c r="B30" s="8">
-        <v>178.51016800026053</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C30" s="11">
         <f t="shared" si="0"/>
-        <v>0.940009966288608</v>
+        <v>1</v>
       </c>
       <c r="D30" s="19">
         <f t="shared" si="1"/>
-        <v>4.7382851052638619E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -19919,15 +19941,15 @@
         <v>22</v>
       </c>
       <c r="B31" s="8">
-        <v>179.33307920595468</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C31" s="11">
         <f t="shared" si="0"/>
-        <v>0.94434330339421169</v>
+        <v>1</v>
       </c>
       <c r="D31" s="19">
         <f t="shared" si="1"/>
-        <v>4.3333371056036851E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -19935,15 +19957,15 @@
         <v>23</v>
       </c>
       <c r="B32" s="8">
-        <v>180.09191006230293</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C32" s="11">
         <f t="shared" si="0"/>
-        <v>0.94833920220314472</v>
+        <v>1</v>
       </c>
       <c r="D32" s="19">
         <f t="shared" si="1"/>
-        <v>3.9958988089330294E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -19951,15 +19973,15 @@
         <v>24</v>
       </c>
       <c r="B33" s="8">
-        <v>180.82587713505592</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C33" s="11">
         <f t="shared" si="0"/>
-        <v>0.95220417175106697</v>
+        <v>1</v>
       </c>
       <c r="D33" s="19">
         <f t="shared" si="1"/>
-        <v>3.864969547922259E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -19967,15 +19989,15 @@
         <v>25</v>
       </c>
       <c r="B34" s="8">
-        <v>181.47329653324604</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C34" s="11">
         <f t="shared" si="0"/>
-        <v>0.95561339316116833</v>
+        <v>1</v>
       </c>
       <c r="D34" s="19">
         <f t="shared" si="1"/>
-        <v>3.4092214101013596E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -19983,15 +20005,15 @@
         <v>26</v>
       </c>
       <c r="B35" s="8">
-        <v>182.10212212118168</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C35" s="11">
         <f t="shared" si="0"/>
-        <v>0.95892470212658221</v>
+        <v>1</v>
       </c>
       <c r="D35" s="19">
         <f t="shared" si="1"/>
-        <v>3.3113089654138728E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -19999,15 +20021,15 @@
         <v>27</v>
       </c>
       <c r="B36" s="8">
-        <v>182.66344210119854</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C36" s="11">
         <f t="shared" si="0"/>
-        <v>0.96188053585529176</v>
+        <v>1</v>
       </c>
       <c r="D36" s="19">
         <f t="shared" si="1"/>
-        <v>2.955833728709556E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -20015,15 +20037,15 @@
         <v>28</v>
       </c>
       <c r="B37" s="8">
-        <v>183.20298413006915</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C37" s="11">
         <f t="shared" si="0"/>
-        <v>0.96472168989179008</v>
+        <v>1</v>
       </c>
       <c r="D37" s="19">
         <f t="shared" si="1"/>
-        <v>2.8411540364983168E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -20031,15 +20053,15 @@
         <v>29</v>
       </c>
       <c r="B38" s="8">
-        <v>183.70309829919285</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C38" s="11">
         <f t="shared" si="0"/>
-        <v>0.96735522224753656</v>
+        <v>1</v>
       </c>
       <c r="D38" s="19">
         <f t="shared" si="1"/>
-        <v>2.6335323557464818E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -20047,15 +20069,15 @@
         <v>30</v>
       </c>
       <c r="B39" s="8">
-        <v>184.17080496634486</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C39" s="11">
         <f t="shared" si="0"/>
-        <v>0.96981810115996847</v>
+        <v>1</v>
       </c>
       <c r="D39" s="19">
         <f t="shared" si="1"/>
-        <v>2.4628789124319095E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -20063,15 +20085,15 @@
         <v>31</v>
       </c>
       <c r="B40" s="8">
-        <v>184.61566161725676</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C40" s="11">
         <f t="shared" si="0"/>
-        <v>0.97216065503301374</v>
+        <v>1</v>
       </c>
       <c r="D40" s="19">
         <f t="shared" si="1"/>
-        <v>2.3425538730452722E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -20079,15 +20101,15 @@
         <v>32</v>
       </c>
       <c r="B41" s="8">
-        <v>185.05485812689713</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C41" s="11">
         <f t="shared" si="0"/>
-        <v>0.97447340338144683</v>
+        <v>1</v>
       </c>
       <c r="D41" s="19">
         <f t="shared" si="1"/>
-        <v>2.3127483484330913E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -20095,15 +20117,15 @@
         <v>33</v>
       </c>
       <c r="B42" s="8">
-        <v>185.43172470329003</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C42" s="11">
         <f t="shared" si="0"/>
-        <v>0.97645793088337529</v>
+        <v>1</v>
       </c>
       <c r="D42" s="19">
         <f t="shared" si="1"/>
-        <v>1.9845275019284569E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -20111,15 +20133,15 @@
         <v>34</v>
       </c>
       <c r="B43" s="8">
-        <v>185.81379868936133</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C43" s="11">
         <f t="shared" si="0"/>
-        <v>0.97846987988768142</v>
+        <v>1</v>
       </c>
       <c r="D43" s="19">
         <f t="shared" si="1"/>
-        <v>2.0119490043061239E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -20127,15 +20149,15 @@
         <v>35</v>
       </c>
       <c r="B44" s="8">
-        <v>186.17396155147847</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C44" s="11">
         <f t="shared" si="0"/>
-        <v>0.98036644793010597</v>
+        <v>1</v>
       </c>
       <c r="D44" s="19">
         <f t="shared" si="1"/>
-        <v>1.8965680424245512E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -20143,15 +20165,15 @@
         <v>36</v>
       </c>
       <c r="B45" s="8">
-        <v>186.50747845377506</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C45" s="11">
         <f t="shared" si="0"/>
-        <v>0.98212270201689866</v>
+        <v>1</v>
       </c>
       <c r="D45" s="19">
         <f t="shared" si="1"/>
-        <v>1.7562540867926968E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -20159,15 +20181,15 @@
         <v>37</v>
       </c>
       <c r="B46" s="8">
-        <v>186.82675970207848</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C46" s="11">
         <f t="shared" si="0"/>
-        <v>0.98380399310981748</v>
+        <v>1</v>
       </c>
       <c r="D46" s="19">
         <f t="shared" si="1"/>
-        <v>1.681291092918813E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -20175,15 +20197,15 @@
         <v>38</v>
       </c>
       <c r="B47" s="8">
-        <v>187.12906406339516</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C47" s="11">
         <f t="shared" si="0"/>
-        <v>0.98539588625334851</v>
+        <v>1</v>
       </c>
       <c r="D47" s="19">
         <f t="shared" si="1"/>
-        <v>1.5918931435310313E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -20191,15 +20213,15 @@
         <v>39</v>
       </c>
       <c r="B48" s="8">
-        <v>187.43324812232456</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C48" s="11">
         <f t="shared" si="0"/>
-        <v>0.98699767762569957</v>
+        <v>1</v>
       </c>
       <c r="D48" s="19">
         <f t="shared" si="1"/>
-        <v>1.601791372351058E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -20207,15 +20229,15 @@
         <v>40</v>
       </c>
       <c r="B49" s="8">
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C49" s="11">
         <f t="shared" si="0"/>
-        <v>0.98843847045919275</v>
+        <v>1</v>
       </c>
       <c r="D49" s="19">
         <f t="shared" si="1"/>
-        <v>1.4407928334931874E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -20223,15 +20245,15 @@
         <v>41</v>
       </c>
       <c r="B50" s="8">
-        <v>187.96691163163436</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C50" s="11">
         <f t="shared" si="0"/>
-        <v>0.98980787618758226</v>
+        <v>1</v>
       </c>
       <c r="D50" s="19">
         <f t="shared" si="1"/>
-        <v>1.3694057283895056E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -20239,15 +20261,15 @@
         <v>42</v>
       </c>
       <c r="B51" s="8">
-        <v>188.22338485053353</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C51" s="11">
         <f t="shared" si="0"/>
-        <v>0.99115842884546212</v>
+        <v>1</v>
       </c>
       <c r="D51" s="19">
         <f t="shared" si="1"/>
-        <v>1.3505526578798666E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -20255,15 +20277,15 @@
         <v>43</v>
       </c>
       <c r="B52" s="8">
-        <v>188.46653119702023</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C52" s="11">
         <f t="shared" si="0"/>
-        <v>0.99243880402814544</v>
+        <v>1</v>
       </c>
       <c r="D52" s="19">
         <f t="shared" si="1"/>
-        <v>1.2803751826833132E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -20271,15 +20293,15 @@
         <v>44</v>
       </c>
       <c r="B53" s="8">
-        <v>188.6943130121825</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C53" s="11">
         <f t="shared" si="0"/>
-        <v>0.99363827170435948</v>
+        <v>1</v>
       </c>
       <c r="D53" s="19">
         <f t="shared" si="1"/>
-        <v>1.1994676762140388E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -20287,15 +20309,15 @@
         <v>45</v>
       </c>
       <c r="B54" s="8">
-        <v>188.91686195167426</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C54" s="11">
         <f t="shared" si="0"/>
-        <v>0.99481018377778774</v>
+        <v>1</v>
       </c>
       <c r="D54" s="19">
         <f t="shared" si="1"/>
-        <v>1.1719120734282606E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -20303,15 +20325,15 @@
         <v>46</v>
       </c>
       <c r="B55" s="8">
-        <v>189.12833710900443</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C55" s="11">
         <f t="shared" si="0"/>
-        <v>0.99592378283906091</v>
+        <v>1</v>
       </c>
       <c r="D55" s="19">
         <f t="shared" si="1"/>
-        <v>1.1135990612731739E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -20319,15 +20341,15 @@
         <v>47</v>
       </c>
       <c r="B56" s="8">
-        <v>189.33939454300699</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C56" s="11">
         <f t="shared" si="0"/>
-        <v>0.99703518222680565</v>
+        <v>1</v>
       </c>
       <c r="D56" s="19">
         <f t="shared" si="1"/>
-        <v>1.1113993877447381E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -20335,15 +20357,15 @@
         <v>48</v>
       </c>
       <c r="B57" s="8">
-        <v>189.5377594338928</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C57" s="11">
         <f t="shared" si="0"/>
-        <v>0.99807974443008673</v>
+        <v>1</v>
       </c>
       <c r="D57" s="19">
         <f t="shared" si="1"/>
-        <v>1.0445622032810853E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -20351,15 +20373,15 @@
         <v>49</v>
       </c>
       <c r="B58" s="8">
-        <v>189.71673124668493</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C58" s="11">
         <f t="shared" si="0"/>
-        <v>0.99902218535428711</v>
+        <v>1</v>
       </c>
       <c r="D58" s="19">
         <f>C58-C57</f>
-        <v>9.4244092420037173E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -20367,7 +20389,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="8">
-        <v>189.90242061481842</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="C59" s="11">
         <f t="shared" si="0"/>
@@ -20375,7 +20397,7 @@
       </c>
       <c r="D59" s="19">
         <f t="shared" si="1"/>
-        <v>9.7781464571289334E-4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20420,7 +20442,7 @@
       </c>
       <c r="B6" s="1">
         <f>'IN-client'!C7</f>
-        <v>0.13333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -20429,7 +20451,7 @@
       </c>
       <c r="B7" s="1">
         <f>'IN-client'!C8</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -20437,8 +20459,8 @@
         <v>195</v>
       </c>
       <c r="B8" s="19">
-        <f>C10*'IN-client'!C27</f>
-        <v>0.13333333333333333</v>
+        <f>C10*'IN-client'!B29</f>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>199</v>
@@ -20450,7 +20472,7 @@
       </c>
       <c r="B9" s="19">
         <f>C10-B8</f>
-        <v>0.53333333333333333</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C9" t="s">
         <v>199</v>
@@ -20462,7 +20484,7 @@
       </c>
       <c r="C10" s="1">
         <f>'IN-client'!C9</f>
-        <v>0.66666666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
   </sheetData>
@@ -20519,7 +20541,7 @@
         <v>126</v>
       </c>
       <c r="B7" t="str">
-        <f>'IN-client'!D16</f>
+        <f>'IN-client'!D17</f>
         <v>OK</v>
       </c>
     </row>
@@ -20528,7 +20550,7 @@
         <v>127</v>
       </c>
       <c r="B8" t="str">
-        <f>'IN-client'!H15</f>
+        <f>'IN-client'!H16</f>
         <v>OK</v>
       </c>
     </row>
@@ -20537,7 +20559,7 @@
         <v>128</v>
       </c>
       <c r="B9" t="str">
-        <f>'IN-client'!D23</f>
+        <f>'IN-client'!D25</f>
         <v>OK</v>
       </c>
     </row>
@@ -20546,7 +20568,7 @@
         <v>129</v>
       </c>
       <c r="B10" t="str">
-        <f>'IN-client'!H24</f>
+        <f>'IN-client'!H26</f>
         <v>OK</v>
       </c>
     </row>
@@ -20853,10 +20875,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20952,6 +20974,14 @@
       </c>
       <c r="B13" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>20160923.199999999</v>
+      </c>
+      <c r="B14" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -20967,10 +20997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21007,10 +21037,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="28" t="s">
         <v>318</v>
       </c>
       <c r="J6" t="s">
@@ -21027,9 +21057,9 @@
       <c r="B7" s="5">
         <v>10</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="30">
         <f>B7/SUM(B$7:B$9)</f>
-        <v>0.13333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J7" t="s">
         <v>46</v>
@@ -21043,11 +21073,11 @@
         <v>46</v>
       </c>
       <c r="B8" s="5">
-        <v>15</v>
-      </c>
-      <c r="C8" s="36">
+        <v>30</v>
+      </c>
+      <c r="C8" s="30">
         <f t="shared" ref="C8:C9" si="0">B8/SUM(B$7:B$9)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
@@ -21063,9 +21093,9 @@
       <c r="B9" s="5">
         <v>50</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="30">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IF(NOT(C10=1),"ERROR","OK")</f>
@@ -21088,192 +21118,242 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>50</v>
+      </c>
+      <c r="C14" s="30">
+        <f>B14/SUM(B$14:B$17)</f>
+        <v>0.5</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>25</v>
+      </c>
+      <c r="C15" s="30">
+        <f t="shared" ref="C15:C17" si="1">B15/SUM(B$14:B$17)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3">
         <v>0.3</v>
-      </c>
-      <c r="G15" s="1">
-        <f>SUM(G13:G14)</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="str">
-        <f>IF(NOT(G15=1),"ERROR","OK")</f>
-        <v>OK</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>25</v>
+      </c>
+      <c r="C16" s="30">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="1">
+        <f>SUM(G14:G15)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>IF(NOT(G16=1),"ERROR","OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>IF(NOT(C17=1),"ERROR","OK")</f>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IF(NOT(C18=1),"ERROR","OK")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="C17" s="1">
-        <f>SUM(C13:C16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
+    <row r="18" spans="1:8">
+      <c r="C18" s="1">
+        <f>SUM(C14:C17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="B20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
     <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.35</v>
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>35</v>
+      </c>
+      <c r="C22" s="30">
+        <f>B22/SUM(B$22:B$25)</f>
+        <v>0.41176470588235292</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>20</v>
+      </c>
+      <c r="C23" s="30">
+        <f t="shared" ref="C23:C25" si="2">B23/SUM(B$22:B$25)</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5">
+        <v>20</v>
+      </c>
+      <c r="C24" s="30">
+        <f t="shared" si="2"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f>IF(NOT(C24=1),"ERROR","OK")</f>
+      <c r="B25" s="5">
+        <v>10</v>
+      </c>
+      <c r="C25" s="30">
+        <f t="shared" si="2"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>IF(NOT(C26=1),"ERROR","OK")</f>
         <v>OK</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="C24" s="1">
-        <f>SUM(C20:C23)</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <f>SUM(G20:G23)</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="str">
-        <f>IF(NOT(G24=1),"ERROR","OK")</f>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="1">
+        <f>SUM(C22:C25)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <f>SUM(G22:G25)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f>IF(NOT(G26=1),"ERROR","OK")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="5">
+      <c r="B30" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="5">
-        <f>'Aggregate data tables'!B4</f>
+      <c r="B34" s="5">
         <v>40</v>
       </c>
     </row>
@@ -21286,36 +21366,36 @@
       <formula>D9="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="17" priority="7">
-      <formula>D16="OK"</formula>
+      <formula>D17="OK"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="8">
-      <formula>D16="ERROR"</formula>
+      <formula>D17="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="15" priority="5">
-      <formula>D23="OK"</formula>
+      <formula>D25="OK"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="6">
-      <formula>D23="ERROR"</formula>
+      <formula>D25="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H26">
     <cfRule type="expression" dxfId="13" priority="3">
-      <formula>H24="OK"</formula>
+      <formula>H26="OK"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="4">
-      <formula>H24="ERROR"</formula>
+      <formula>H26="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H16">
     <cfRule type="expression" dxfId="11" priority="1">
-      <formula>H15="OK"</formula>
+      <formula>H16="OK"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="2">
-      <formula>H15="ERROR"</formula>
+      <formula>H16="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21333,7 +21413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -21360,42 +21442,42 @@
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1"/>
     <row r="5" spans="1:13">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="F5" s="28" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="F5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="K5" s="28" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="K5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="27"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="31" t="s">
         <v>318</v>
       </c>
       <c r="F6" s="27"/>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="31" t="s">
         <v>318</v>
       </c>
       <c r="K6" s="27"/>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="31" t="s">
         <v>318</v>
       </c>
     </row>
@@ -21406,7 +21488,7 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="30">
         <f>B7/SUM(B$7:B$14)</f>
         <v>0.05</v>
       </c>
@@ -21416,19 +21498,17 @@
       <c r="G7" s="5">
         <v>5</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="30">
         <f>G7/SUM(G$7:G$14)</f>
         <v>0.05</v>
       </c>
       <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="5">
-        <v>5</v>
-      </c>
-      <c r="M7" s="36">
+      <c r="L7" s="5"/>
+      <c r="M7" s="30">
         <f>L7/SUM(L$7:L$16)</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -21438,7 +21518,7 @@
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="30">
         <f t="shared" ref="C8:C14" si="0">B8/SUM(B$7:B$14)</f>
         <v>0.05</v>
       </c>
@@ -21448,19 +21528,17 @@
       <c r="G8" s="5">
         <v>10</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="30">
         <f t="shared" ref="H8:H14" si="1">G8/SUM(G$7:G$14)</f>
         <v>0.1</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="5">
-        <v>5</v>
-      </c>
-      <c r="M8" s="36">
+      <c r="L8" s="5"/>
+      <c r="M8" s="30">
         <f t="shared" ref="M8:M16" si="2">L8/SUM(L$7:L$16)</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -21470,7 +21548,7 @@
       <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="30">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
@@ -21480,19 +21558,17 @@
       <c r="G9" s="5">
         <v>10</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="30">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="5">
-        <v>5</v>
-      </c>
-      <c r="M9" s="36">
+      <c r="L9" s="5"/>
+      <c r="M9" s="30">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -21502,7 +21578,7 @@
       <c r="B10" s="5">
         <v>15</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="30">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -21512,19 +21588,17 @@
       <c r="G10" s="5">
         <v>10</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="30">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="5">
-        <v>10</v>
-      </c>
-      <c r="M10" s="36">
+      <c r="L10" s="5"/>
+      <c r="M10" s="30">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -21534,7 +21608,7 @@
       <c r="B11" s="5">
         <v>15</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="30">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -21544,19 +21618,17 @@
       <c r="G11" s="5">
         <v>15</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="30">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="5">
-        <v>10</v>
-      </c>
-      <c r="M11" s="36">
+      <c r="L11" s="5"/>
+      <c r="M11" s="30">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -21566,7 +21638,7 @@
       <c r="B12" s="5">
         <v>20</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="30">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -21576,19 +21648,17 @@
       <c r="G12" s="5">
         <v>25</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="30">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="K12" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="5">
-        <v>15</v>
-      </c>
-      <c r="M12" s="36">
+      <c r="L12" s="5"/>
+      <c r="M12" s="30">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -21598,7 +21668,7 @@
       <c r="B13" s="5">
         <v>20</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="30">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -21608,19 +21678,17 @@
       <c r="G13" s="5">
         <v>15</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="30">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
       <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="5">
-        <v>15</v>
-      </c>
-      <c r="M13" s="36">
+      <c r="L13" s="5"/>
+      <c r="M13" s="30">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -21630,7 +21698,7 @@
       <c r="B14" s="5">
         <v>15</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="30">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -21640,19 +21708,17 @@
       <c r="G14" s="5">
         <v>10</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="30">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="K14" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="5">
-        <v>20</v>
-      </c>
-      <c r="M14" s="36">
+      <c r="L14" s="5"/>
+      <c r="M14" s="30">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -21675,12 +21741,10 @@
       <c r="K15" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="5">
-        <v>10</v>
-      </c>
-      <c r="M15" s="36">
+      <c r="L15" s="5"/>
+      <c r="M15" s="30">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -21692,9 +21756,9 @@
       <c r="L16" s="5">
         <v>5</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="30">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="13:14">
@@ -21787,79 +21851,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="29" t="str">
+      <c r="A1" s="33" t="str">
         <f>IF(Errors!B18="ERROR","WARNING: Inputs do not pass validation. Check that all percentages total to 100%","")</f>
         <v/>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" t="s">
         <v>312</v>
       </c>
       <c r="J1" s="8">
         <f>'RESULT-t''put'!D34</f>
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
       <c r="K1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="J2" s="35"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="32" spans="5:18">
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="11">
         <f>'RESULT-t''put'!B52</f>
-        <v>8.4277762911277393E-2</v>
-      </c>
-      <c r="K32" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="L32" s="30"/>
+      <c r="L32" s="34"/>
       <c r="M32" s="1">
         <f>'RESULT-t''put'!B73</f>
-        <v>6.6107370810325292E-2</v>
-      </c>
-      <c r="P32" s="30" t="s">
+        <v>0.1809056799385467</v>
+      </c>
+      <c r="P32" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="Q32" s="30"/>
+      <c r="Q32" s="34"/>
       <c r="R32" s="1">
         <f>'RESULT-t''put'!B95</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:18">
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
       <c r="H33" s="11">
         <f>'RESULT-t''put'!B53</f>
-        <v>9.4799916086962477E-2</v>
-      </c>
-      <c r="K33" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="L33" s="30"/>
+      <c r="L33" s="34"/>
       <c r="M33" s="11">
         <f>'RESULT-t''put'!B74</f>
-        <v>7.0786907128376958E-2</v>
-      </c>
-      <c r="P33" s="30" t="s">
+        <v>0.22086062069747245</v>
+      </c>
+      <c r="P33" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="Q33" s="30"/>
+      <c r="Q33" s="34"/>
       <c r="R33" s="1">
         <f>'RESULT-t''put'!B96</f>
         <v>0</v>
@@ -21925,76 +21989,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="29" t="str">
+      <c r="A1" s="33" t="str">
         <f>IF(Errors!B18="ERROR","WARNING: Inputs do not pass validation. Check that all percentages total to 100%","")</f>
         <v/>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" t="s">
         <v>312</v>
       </c>
       <c r="J1" s="8">
         <f>'RESULT-equal'!D11</f>
-        <v>195.304205237904</v>
+        <v>414.05396036110631</v>
       </c>
       <c r="K1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="32" spans="5:18">
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="11">
         <f>'RESULT-equal'!B28</f>
-        <v>8.5811587826360919E-2</v>
-      </c>
-      <c r="K32" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="L32" s="30"/>
+      <c r="L32" s="34"/>
       <c r="M32" s="1">
         <f>'RESULT-equal'!B49</f>
-        <v>6.7310501136960646E-2</v>
-      </c>
-      <c r="P32" s="30" t="s">
+        <v>0.20003751834075728</v>
+      </c>
+      <c r="P32" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="Q32" s="30"/>
+      <c r="Q32" s="34"/>
       <c r="R32" s="1">
         <f>'RESULT-equal'!B71</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:18">
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
       <c r="H33" s="11">
         <f>'RESULT-equal'!B29</f>
-        <v>9.6220694733440054E-2</v>
-      </c>
-      <c r="K33" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="L33" s="30"/>
+      <c r="L33" s="34"/>
       <c r="M33" s="11">
         <f>'RESULT-equal'!B50</f>
-        <v>7.2168177318403415E-2</v>
-      </c>
-      <c r="P33" s="30" t="s">
+        <v>0.25005862515683147</v>
+      </c>
+      <c r="P33" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="Q33" s="30"/>
+      <c r="Q33" s="34"/>
       <c r="R33" s="1">
         <f>'RESULT-equal'!B72</f>
         <v>0</v>
@@ -22029,8 +22093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22109,19 +22173,19 @@
       </c>
       <c r="B9" s="8">
         <f>'Airtime calculations'!I$126</f>
-        <v>405.09225000000009</v>
+        <v>155.565</v>
       </c>
       <c r="C9" s="8">
         <f>'Airtime calculations'!I$142</f>
-        <v>205.755</v>
+        <v>80.91</v>
       </c>
       <c r="D9" s="8">
         <f>'Airtime calculations'!I$157</f>
-        <v>139.31100000000001</v>
+        <v>56.025000000000013</v>
       </c>
       <c r="E9" s="8">
         <f>'Airtime calculations'!I$172</f>
-        <v>106.07849999999999</v>
+        <v>43.739999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -22188,19 +22252,19 @@
       </c>
       <c r="B15" s="7">
         <f>B9/(1500*8)</f>
-        <v>3.3757687500000008E-2</v>
+        <v>1.296375E-2</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>1.7146249999999998E-2</v>
+        <v>6.7424999999999994E-3</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>1.160925E-2</v>
+        <v>4.668750000000001E-3</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>8.8398749999999988E-3</v>
+        <v>3.6449999999999994E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -22252,24 +22316,24 @@
         <v>46</v>
       </c>
       <c r="B20" s="7">
-        <f>B14*'IN-client'!C13</f>
+        <f>B14*'IN-client'!C14</f>
         <v>2.0221125E-2</v>
       </c>
       <c r="C20" s="7">
-        <f>C14*'IN-client'!C14</f>
-        <v>4.0977499999999998E-3</v>
+        <f>C14*'IN-client'!C15</f>
+        <v>5.1221875E-3</v>
       </c>
       <c r="D20" s="7">
-        <f>D14*'IN-client'!C15</f>
-        <v>4.1511000000000013E-3</v>
+        <f>D14*'IN-client'!C16</f>
+        <v>3.459250000000001E-3</v>
       </c>
       <c r="E20" s="7">
-        <f>E14*'IN-client'!C16</f>
+        <f>E14*'IN-client'!C17</f>
         <v>0</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" ref="F20:F21" si="1">SUM(B20:E20)</f>
-        <v>2.8469975000000002E-2</v>
+        <v>2.88025625E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -22277,24 +22341,24 @@
         <v>47</v>
       </c>
       <c r="B21" s="7">
-        <f>B15*'IN-client'!C20</f>
-        <v>5.0636531250000012E-3</v>
+        <f>B15*'IN-client'!C22</f>
+        <v>5.3380147058823529E-3</v>
       </c>
       <c r="C21" s="7">
-        <f>C15*'IN-client'!C21</f>
-        <v>7.7158124999999996E-3</v>
+        <f>C15*'IN-client'!C23</f>
+        <v>1.586470588235294E-3</v>
       </c>
       <c r="D21" s="7">
-        <f>D15*'IN-client'!C22</f>
-        <v>4.0632374999999997E-3</v>
+        <f>D15*'IN-client'!C24</f>
+        <v>1.0985294117647061E-3</v>
       </c>
       <c r="E21" s="7">
-        <f>E15*'IN-client'!C23</f>
-        <v>4.4199374999999994E-4</v>
+        <f>E15*'IN-client'!C25</f>
+        <v>4.2882352941176464E-4</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>1.7284696875000002E-2</v>
+        <v>8.4518382352941172E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -22329,19 +22393,19 @@
       </c>
       <c r="C25" s="1">
         <f>'IN-client'!C7</f>
-        <v>0.13333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D25" s="10">
         <f>B25*C25</f>
-        <v>5.6053333333333337E-3</v>
+        <v>4.6711111111111111E-3</v>
       </c>
       <c r="E25" s="10">
         <f>D25*'IN-client'!K6</f>
-        <v>2.8026666666666668E-2</v>
+        <v>2.3355555555555556E-2</v>
       </c>
       <c r="F25" s="10">
         <f>E25/SUM(E25:E27)</f>
-        <v>0.1530542126968345</v>
+        <v>0.16983858617932152</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -22350,23 +22414,23 @@
       </c>
       <c r="B26" s="10">
         <f>F20</f>
-        <v>2.8469975000000002E-2</v>
+        <v>2.88025625E-2</v>
       </c>
       <c r="C26" s="1">
         <f>'IN-client'!C8</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" ref="D26:D27" si="2">B26*C26</f>
-        <v>5.6939950000000003E-3</v>
+        <v>9.6008541666666655E-3</v>
       </c>
       <c r="E26" s="10">
         <f>D26*'IN-client'!K7</f>
-        <v>3.9857965000000002E-2</v>
+        <v>6.7205979166666652E-2</v>
       </c>
       <c r="F26" s="10">
         <f>E26/SUM(E25:E27)</f>
-        <v>0.21766518028447854</v>
+        <v>0.48871320818350328</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -22375,23 +22439,23 @@
       </c>
       <c r="B27" s="10">
         <f>F21</f>
-        <v>1.7284696875000002E-2</v>
+        <v>8.4518382352941172E-3</v>
       </c>
       <c r="C27" s="1">
         <f>'IN-client'!C9</f>
-        <v>0.66666666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="2"/>
-        <v>1.1523131250000001E-2</v>
+        <v>4.6954656862745097E-3</v>
       </c>
       <c r="E27" s="10">
         <f>D27*'IN-client'!K8</f>
-        <v>0.1152313125</v>
+        <v>4.6954656862745095E-2</v>
       </c>
       <c r="F27" s="10">
         <f>E27/SUM(E25:E27)</f>
-        <v>0.62928060701868704</v>
+        <v>0.34144820563717515</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -22420,11 +22484,11 @@
       </c>
       <c r="C31" s="11">
         <f>F25</f>
-        <v>0.1530542126968345</v>
+        <v>0.16983858617932152</v>
       </c>
       <c r="D31" s="8">
         <f>B31*C31</f>
-        <v>5.0146848770974275</v>
+        <v>5.5646099160174671</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -22433,15 +22497,15 @@
       </c>
       <c r="B32" s="8">
         <f>'Airtime calculations'!D100</f>
-        <v>85.316085453613141</v>
+        <v>83.093563567871826</v>
       </c>
       <c r="C32" s="11">
         <f>F26</f>
-        <v>0.21766518028447854</v>
+        <v>0.48871320818350328</v>
       </c>
       <c r="D32" s="8">
         <f>B32*C32</f>
-        <v>18.570341121426683</v>
+        <v>40.608922030654504</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -22450,15 +22514,15 @@
       </c>
       <c r="B33" s="8">
         <f>'Airtime calculations'!F201</f>
-        <v>260.80866046077205</v>
+        <v>688.88816874926829</v>
       </c>
       <c r="C33" s="11">
         <f>F27</f>
-        <v>0.62928060701868704</v>
+        <v>0.34144820563717515</v>
       </c>
       <c r="D33" s="8">
         <f>B33*C33</f>
-        <v>164.12183217048528</v>
+        <v>235.21962910411719</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -22467,7 +22531,7 @@
       </c>
       <c r="D34" s="8">
         <f>SUM(D31:D33)</f>
-        <v>187.70685816900939</v>
+        <v>281.39316105078916</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -22515,7 +22579,7 @@
       </c>
       <c r="C41" s="8">
         <f>B32</f>
-        <v>85.316085453613141</v>
+        <v>83.093563567871826</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -22530,11 +22594,11 @@
       </c>
       <c r="C42" s="8">
         <f>B33-D42</f>
-        <v>235.66961451982701</v>
+        <v>688.88816874926829</v>
       </c>
       <c r="D42" s="8">
         <f>'Airtime calculations'!F220</f>
-        <v>25.139045940945024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -22547,11 +22611,11 @@
       </c>
       <c r="C43" s="8">
         <f t="shared" ref="C43:D43" si="3">SUM(C40:C42)</f>
-        <v>320.98569997344015</v>
+        <v>771.98173231714009</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="3"/>
-        <v>25.139045940945024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -22584,7 +22648,7 @@
       </c>
       <c r="B47" s="13">
         <f>B40*C31</f>
-        <v>5.0146848770974275</v>
+        <v>5.5646099160174671</v>
       </c>
       <c r="C47" s="8">
         <v>0</v>
@@ -22602,7 +22666,7 @@
       </c>
       <c r="C48" s="8">
         <f>B32*C32</f>
-        <v>18.570341121426683</v>
+        <v>40.608922030654504</v>
       </c>
       <c r="D48" s="8">
         <v>0</v>
@@ -22617,11 +22681,11 @@
       </c>
       <c r="C49" s="8">
         <f>C42*C33</f>
-        <v>148.30231808089673</v>
+        <v>235.21962910411719</v>
       </c>
       <c r="D49" s="8">
         <f>D42*C33</f>
-        <v>15.819514089588546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -22630,15 +22694,15 @@
       </c>
       <c r="B50" s="8">
         <f>SUM(B47:B49)</f>
-        <v>5.0146848770974275</v>
+        <v>5.5646099160174671</v>
       </c>
       <c r="C50" s="8">
         <f t="shared" ref="C50:D50" si="4">SUM(C47:C49)</f>
-        <v>166.8726592023234</v>
+        <v>275.82855113477171</v>
       </c>
       <c r="D50" s="8">
         <f t="shared" si="4"/>
-        <v>15.819514089588546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -22652,7 +22716,7 @@
       </c>
       <c r="B52" s="18">
         <f>D50/SUM(B50:D50)</f>
-        <v>8.4277762911277393E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -22661,7 +22725,7 @@
       </c>
       <c r="B53" s="18">
         <f>D50/C50</f>
-        <v>9.4799916086962477E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -22723,11 +22787,11 @@
       </c>
       <c r="C60" s="8">
         <f>'Airtime calculations'!D97</f>
-        <v>19.046965465271878</v>
+        <v>23.808706831589848</v>
       </c>
       <c r="D60" s="8">
         <f>'Airtime calculations'!D98</f>
-        <v>41.905579512355729</v>
+        <v>34.921316260296436</v>
       </c>
       <c r="E60" s="8">
         <v>0</v>
@@ -22739,19 +22803,19 @@
       </c>
       <c r="B61" s="8">
         <f>'Airtime calculations'!F197</f>
-        <v>22.459618212534519</v>
+        <v>146.40635368987051</v>
       </c>
       <c r="C61" s="8">
         <f>'Airtime calculations'!F198</f>
-        <v>112.332072995611</v>
+        <v>160.97297650984751</v>
       </c>
       <c r="D61" s="8">
         <f>'Airtime calculations'!F199</f>
-        <v>106.29793335954788</v>
+        <v>232.42145050791396</v>
       </c>
       <c r="E61" s="8">
         <f>'Airtime calculations'!F200</f>
-        <v>19.719035893078701</v>
+        <v>149.08738804163642</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -22760,19 +22824,19 @@
       </c>
       <c r="B62" s="8">
         <f>SUM(B59:B61)</f>
-        <v>79.587267488520055</v>
+        <v>203.53400296585605</v>
       </c>
       <c r="C62" s="8">
         <f t="shared" ref="C62:E62" si="5">SUM(C59:C61)</f>
-        <v>131.37903846088287</v>
+        <v>184.78168334143737</v>
       </c>
       <c r="D62" s="8">
         <f t="shared" si="5"/>
-        <v>148.20351287190363</v>
+        <v>267.34276676821037</v>
       </c>
       <c r="E62" s="8">
         <f t="shared" si="5"/>
-        <v>19.719035893078701</v>
+        <v>149.08738804163642</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -22781,19 +22845,19 @@
       </c>
       <c r="B63" s="11">
         <f>B62/SUM($B62:$E62)</f>
-        <v>0.21005439061678047</v>
+        <v>0.25291712310474596</v>
       </c>
       <c r="C63" s="11">
         <f>C62/SUM($B62:$E62)</f>
-        <v>0.34674822662682775</v>
+        <v>0.22961495903467521</v>
       </c>
       <c r="D63" s="11">
         <f>D62/SUM($B62:$E62)</f>
-        <v>0.39115300180477125</v>
+        <v>0.33220770224433571</v>
       </c>
       <c r="E63" s="11">
         <f>E61/SUM(B59:E61)</f>
-        <v>5.2044380951620617E-2</v>
+        <v>0.18526021561624326</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -22826,7 +22890,7 @@
       </c>
       <c r="B67" s="8">
         <f>D31</f>
-        <v>5.0146848770974275</v>
+        <v>5.5646099160174671</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -22844,15 +22908,15 @@
       </c>
       <c r="B68" s="8">
         <f>B60*C32</f>
-        <v>5.3030944300735809</v>
+        <v>11.906784028727525</v>
       </c>
       <c r="C68" s="8">
         <f>C60*C32</f>
-        <v>4.1458611718706404</v>
+        <v>11.635629498366766</v>
       </c>
       <c r="D68" s="8">
         <f>D60*C32</f>
-        <v>9.1213855194824607</v>
+        <v>17.066508503560211</v>
       </c>
       <c r="E68" s="8">
         <f>E60*C32</f>
@@ -22865,19 +22929,19 @@
       </c>
       <c r="B69" s="8">
         <f>B61*C33</f>
-        <v>14.133402182191681</v>
+        <v>49.990186761287902</v>
       </c>
       <c r="C69" s="8">
         <f>C61*C33</f>
-        <v>70.688395082345551</v>
+        <v>54.96393398536258</v>
       </c>
       <c r="D69" s="8">
         <f>D61*C33</f>
-        <v>66.891228029328232</v>
+        <v>79.359887227516737</v>
       </c>
       <c r="E69" s="8">
         <f>E61*C33</f>
-        <v>12.408806876619842</v>
+        <v>50.905621129949999</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -22886,19 +22950,19 @@
       </c>
       <c r="B70" s="8">
         <f>SUM(B67:B69)</f>
-        <v>24.451181489362689</v>
+        <v>67.46158070603289</v>
       </c>
       <c r="C70" s="8">
         <f t="shared" ref="C70:E70" si="6">SUM(C67:C69)</f>
-        <v>74.834256254216186</v>
+        <v>66.599563483729341</v>
       </c>
       <c r="D70" s="8">
         <f t="shared" si="6"/>
-        <v>76.012613548810691</v>
+        <v>96.426395731076951</v>
       </c>
       <c r="E70" s="8">
         <f t="shared" si="6"/>
-        <v>12.408806876619842</v>
+        <v>50.905621129949999</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -22907,19 +22971,19 @@
       </c>
       <c r="B71" s="11">
         <f>B70/SUM($B70:$E70)</f>
-        <v>0.13026258991212289</v>
+        <v>0.23974136561853623</v>
       </c>
       <c r="C71" s="11">
         <f>C70/SUM($B70:$E70)</f>
-        <v>0.39867619640639956</v>
+        <v>0.23667797481300076</v>
       </c>
       <c r="D71" s="11">
         <f>D70/SUM($B70:$E70)</f>
-        <v>0.40495384287115221</v>
+        <v>0.34267497962991639</v>
       </c>
       <c r="E71" s="11">
         <f>E69/SUM(B67:E69)</f>
-        <v>6.6107370810325292E-2</v>
+        <v>0.1809056799385467</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -22934,7 +22998,7 @@
       </c>
       <c r="B73" s="11">
         <f>E71</f>
-        <v>6.6107370810325292E-2</v>
+        <v>0.1809056799385467</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -22946,7 +23010,7 @@
       </c>
       <c r="B74" s="18">
         <f>E70/SUM(B70:D70)</f>
-        <v>7.0786907128376958E-2</v>
+        <v>0.22086062069747245</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -23006,11 +23070,11 @@
       </c>
       <c r="B82" s="8">
         <f>'Airtime calculations'!B100</f>
-        <v>45.939430628868614</v>
+        <v>44.742688075007905</v>
       </c>
       <c r="C82" s="8">
         <f>'Airtime calculations'!C100</f>
-        <v>39.376654824744527</v>
+        <v>38.350875492863921</v>
       </c>
       <c r="D82" s="8">
         <v>0</v>
@@ -23025,15 +23089,15 @@
       </c>
       <c r="B83" s="8">
         <f>'Airtime calculations'!B201</f>
-        <v>28.287273368847298</v>
+        <v>0</v>
       </c>
       <c r="C83" s="8">
         <f>'Airtime calculations'!C201</f>
-        <v>130.68720296407454</v>
+        <v>0</v>
       </c>
       <c r="D83" s="8">
         <f>'Airtime calculations'!D201</f>
-        <v>101.83418412785026</v>
+        <v>688.88816874926829</v>
       </c>
       <c r="E83" s="8">
         <f>'Airtime calculations'!E201</f>
@@ -23046,15 +23110,15 @@
       </c>
       <c r="B84" s="8">
         <f>SUM(B81:B83)</f>
-        <v>106.99081279771592</v>
+        <v>77.506796875007907</v>
       </c>
       <c r="C84" s="8">
         <f t="shared" ref="C84:E84" si="7">SUM(C81:C83)</f>
-        <v>170.06385778881906</v>
+        <v>38.350875492863921</v>
       </c>
       <c r="D84" s="8">
         <f t="shared" si="7"/>
-        <v>101.83418412785026</v>
+        <v>688.88816874926829</v>
       </c>
       <c r="E84" s="8">
         <f t="shared" si="7"/>
@@ -23067,15 +23131,15 @@
       </c>
       <c r="B85" s="11">
         <f>B84/SUM($B84:$E84)</f>
-        <v>0.28238046980391635</v>
+        <v>9.6312143430792696E-2</v>
       </c>
       <c r="C85" s="11">
         <f>C84/SUM($B84:$E84)</f>
-        <v>0.44884893200940662</v>
+        <v>4.7655885291218926E-2</v>
       </c>
       <c r="D85" s="11">
         <f>D84/SUM($B84:$E84)</f>
-        <v>0.26877059818667692</v>
+        <v>0.85603197127798836</v>
       </c>
       <c r="E85" s="11">
         <f>E83/SUM(B81:E83)</f>
@@ -23109,7 +23173,7 @@
       </c>
       <c r="B89" s="8">
         <f>D31</f>
-        <v>5.0146848770974275</v>
+        <v>5.5646099160174671</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -23127,11 +23191,11 @@
       </c>
       <c r="B90" s="8">
         <f t="shared" ref="B90:E91" si="8">B82*$C32</f>
-        <v>9.9994144499989819</v>
+        <v>21.866342631890888</v>
       </c>
       <c r="C90" s="8">
         <f t="shared" si="8"/>
-        <v>8.5709266714276993</v>
+        <v>18.74257939876362</v>
       </c>
       <c r="D90" s="8">
         <f t="shared" si="8"/>
@@ -23148,15 +23212,15 @@
       </c>
       <c r="B91" s="8">
         <f t="shared" si="8"/>
-        <v>17.800632556451767</v>
+        <v>0</v>
       </c>
       <c r="C91" s="8">
         <f t="shared" si="8"/>
-        <v>82.238922410807191</v>
+        <v>0</v>
       </c>
       <c r="D91" s="8">
         <f t="shared" si="8"/>
-        <v>64.082277203226354</v>
+        <v>235.21962910411719</v>
       </c>
       <c r="E91" s="8">
         <f t="shared" si="8"/>
@@ -23169,15 +23233,15 @@
       </c>
       <c r="B92" s="8">
         <f>SUM(B89:B91)</f>
-        <v>32.814731883548177</v>
+        <v>27.430952547908355</v>
       </c>
       <c r="C92" s="8">
         <f t="shared" ref="C92:E92" si="9">SUM(C89:C91)</f>
-        <v>90.809849082234891</v>
+        <v>18.74257939876362</v>
       </c>
       <c r="D92" s="8">
         <f t="shared" si="9"/>
-        <v>64.082277203226354</v>
+        <v>235.21962910411719</v>
       </c>
       <c r="E92" s="8">
         <f t="shared" si="9"/>
@@ -23190,15 +23254,15 @@
       </c>
       <c r="B93" s="11">
         <f>B92/SUM($B92:$E92)</f>
-        <v>0.17481903540254301</v>
+        <v>9.748265539032519E-2</v>
       </c>
       <c r="C93" s="11">
         <f>C92/SUM($B92:$E92)</f>
-        <v>0.48378546190608862</v>
+        <v>6.6606378523111076E-2</v>
       </c>
       <c r="D93" s="11">
         <f>D92/SUM($B92:$E92)</f>
-        <v>0.34139550269136837</v>
+        <v>0.83591096608656379</v>
       </c>
       <c r="E93" s="11">
         <f>E91/SUM(B89:E91)</f>
@@ -23239,7 +23303,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23289,11 +23353,11 @@
       </c>
       <c r="C8" s="1">
         <f>'IN-client'!C7</f>
-        <v>0.13333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D8" s="8">
         <f>B8*C8</f>
-        <v>4.3685478400000006</v>
+        <v>3.6404565333333334</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -23302,15 +23366,15 @@
       </c>
       <c r="B9" s="8">
         <f>'Airtime calculations'!D100</f>
-        <v>85.316085453613141</v>
+        <v>83.093563567871826</v>
       </c>
       <c r="C9" s="1">
         <f>'IN-client'!C8</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ref="D9:D10" si="0">B9*C9</f>
-        <v>17.063217090722627</v>
+        <v>27.697854522623942</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -23319,15 +23383,15 @@
       </c>
       <c r="B10" s="8">
         <f>'Airtime calculations'!F201</f>
-        <v>260.80866046077205</v>
+        <v>688.88816874926829</v>
       </c>
       <c r="C10" s="1">
         <f>'IN-client'!C9</f>
-        <v>0.66666666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="0"/>
-        <v>173.87244030718136</v>
+        <v>382.71564930514904</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -23336,12 +23400,12 @@
       </c>
       <c r="B11" s="8">
         <f>SUM(B8:B10)</f>
-        <v>378.88885471438516</v>
+        <v>804.74584111714012</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="8">
         <f>SUM(D8:D10)</f>
-        <v>195.304205237904</v>
+        <v>414.05396036110631</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -23389,7 +23453,7 @@
       </c>
       <c r="C17" s="8">
         <f>B9</f>
-        <v>85.316085453613141</v>
+        <v>83.093563567871826</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -23404,11 +23468,11 @@
       </c>
       <c r="C18" s="8">
         <f>B10-D18</f>
-        <v>235.66961451982701</v>
+        <v>688.88816874926829</v>
       </c>
       <c r="D18" s="8">
         <f>'Airtime calculations'!F220</f>
-        <v>25.139045940945024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -23421,11 +23485,11 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" ref="C19:D19" si="1">SUM(C16:C18)</f>
-        <v>320.98569997344015</v>
+        <v>771.98173231714009</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
-        <v>25.139045940945024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -23458,7 +23522,7 @@
       </c>
       <c r="B23" s="13">
         <f>B16*C8</f>
-        <v>4.3685478400000006</v>
+        <v>3.6404565333333334</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -23476,7 +23540,7 @@
       </c>
       <c r="C24" s="8">
         <f>B9*C9</f>
-        <v>17.063217090722627</v>
+        <v>27.697854522623942</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -23491,11 +23555,11 @@
       </c>
       <c r="C25" s="8">
         <f>C18*C10</f>
-        <v>157.11307634655134</v>
+        <v>382.71564930514904</v>
       </c>
       <c r="D25" s="8">
         <f>D18*C10</f>
-        <v>16.759363960630015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -23504,15 +23568,15 @@
       </c>
       <c r="B26" s="8">
         <f>SUM(B23:B25)</f>
-        <v>4.3685478400000006</v>
+        <v>3.6404565333333334</v>
       </c>
       <c r="C26" s="8">
         <f t="shared" ref="C26" si="2">SUM(C23:C25)</f>
-        <v>174.17629343727396</v>
+        <v>410.41350382777296</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" ref="D26" si="3">SUM(D23:D25)</f>
-        <v>16.759363960630015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -23526,7 +23590,7 @@
       </c>
       <c r="B28" s="18">
         <f>D26/SUM(B26:D26)</f>
-        <v>8.5811587826360919E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -23535,7 +23599,7 @@
       </c>
       <c r="B29" s="18">
         <f>D26/C26</f>
-        <v>9.6220694733440054E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -23597,11 +23661,11 @@
       </c>
       <c r="C36" s="8">
         <f>'Airtime calculations'!D97</f>
-        <v>19.046965465271878</v>
+        <v>23.808706831589848</v>
       </c>
       <c r="D36" s="8">
         <f>'Airtime calculations'!D98</f>
-        <v>41.905579512355729</v>
+        <v>34.921316260296436</v>
       </c>
       <c r="E36" s="8">
         <v>0</v>
@@ -23613,19 +23677,19 @@
       </c>
       <c r="B37" s="8">
         <f>'Airtime calculations'!F197</f>
-        <v>22.459618212534519</v>
+        <v>146.40635368987051</v>
       </c>
       <c r="C37" s="8">
         <f>'Airtime calculations'!F198</f>
-        <v>112.332072995611</v>
+        <v>160.97297650984751</v>
       </c>
       <c r="D37" s="8">
         <f>'Airtime calculations'!F199</f>
-        <v>106.29793335954788</v>
+        <v>232.42145050791396</v>
       </c>
       <c r="E37" s="8">
         <f>'Airtime calculations'!F200</f>
-        <v>19.719035893078701</v>
+        <v>149.08738804163642</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -23634,19 +23698,19 @@
       </c>
       <c r="B38" s="8">
         <f>SUM(B35:B37)</f>
-        <v>79.587267488520055</v>
+        <v>203.53400296585605</v>
       </c>
       <c r="C38" s="8">
         <f t="shared" ref="C38" si="4">SUM(C35:C37)</f>
-        <v>131.37903846088287</v>
+        <v>184.78168334143737</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ref="D38" si="5">SUM(D35:D37)</f>
-        <v>148.20351287190363</v>
+        <v>267.34276676821037</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" ref="E38" si="6">SUM(E35:E37)</f>
-        <v>19.719035893078701</v>
+        <v>149.08738804163642</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -23655,19 +23719,19 @@
       </c>
       <c r="B39" s="11">
         <f>B38/SUM($B38:$E38)</f>
-        <v>0.21005439061678047</v>
+        <v>0.25291712310474596</v>
       </c>
       <c r="C39" s="11">
         <f t="shared" ref="C39" si="7">C38/SUM($B38:$E38)</f>
-        <v>0.34674822662682775</v>
+        <v>0.22961495903467521</v>
       </c>
       <c r="D39" s="11">
         <f t="shared" ref="D39" si="8">D38/SUM($B38:$E38)</f>
-        <v>0.39115300180477125</v>
+        <v>0.33220770224433571</v>
       </c>
       <c r="E39" s="11">
         <f>E37/SUM(B35:E37)</f>
-        <v>5.2044380951620617E-2</v>
+        <v>0.18526021561624326</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -23700,7 +23764,7 @@
       </c>
       <c r="B43" s="8">
         <f>D8</f>
-        <v>4.3685478400000006</v>
+        <v>3.6404565333333334</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -23718,15 +23782,15 @@
       </c>
       <c r="B44" s="8">
         <f>B36*$C9</f>
-        <v>4.8727080951971065</v>
+        <v>8.1211801586618435</v>
       </c>
       <c r="C44" s="8">
         <f t="shared" ref="C44:E44" si="9">C36*$C9</f>
-        <v>3.8093930930543758</v>
+        <v>7.9362356105299492</v>
       </c>
       <c r="D44" s="8">
         <f t="shared" si="9"/>
-        <v>8.3811159024711461</v>
+        <v>11.640438753432145</v>
       </c>
       <c r="E44" s="8">
         <f t="shared" si="9"/>
@@ -23739,19 +23803,19 @@
       </c>
       <c r="B45" s="8">
         <f>B37*$C10</f>
-        <v>14.973078808356345</v>
+        <v>81.336863161039176</v>
       </c>
       <c r="C45" s="8">
         <f t="shared" ref="C45:E45" si="10">C37*$C10</f>
-        <v>74.888048663740662</v>
+        <v>89.429431394359739</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" si="10"/>
-        <v>70.865288906365251</v>
+        <v>129.12302805995222</v>
       </c>
       <c r="E45" s="8">
         <f t="shared" si="10"/>
-        <v>13.146023928719133</v>
+        <v>82.826326689798009</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -23760,19 +23824,19 @@
       </c>
       <c r="B46" s="8">
         <f>SUM(B43:B45)</f>
-        <v>24.214334743553451</v>
+        <v>93.098499853034355</v>
       </c>
       <c r="C46" s="8">
         <f t="shared" ref="C46" si="11">SUM(C43:C45)</f>
-        <v>78.697441756795044</v>
+        <v>97.365667004889687</v>
       </c>
       <c r="D46" s="8">
         <f t="shared" ref="D46" si="12">SUM(D43:D45)</f>
-        <v>79.246404808836402</v>
+        <v>140.76346681338435</v>
       </c>
       <c r="E46" s="8">
         <f t="shared" ref="E46" si="13">SUM(E43:E45)</f>
-        <v>13.146023928719133</v>
+        <v>82.826326689798009</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -23781,19 +23845,19 @@
       </c>
       <c r="B47" s="11">
         <f>B46/SUM($B46:$E46)</f>
-        <v>0.12398265932910905</v>
+        <v>0.22484629726000185</v>
       </c>
       <c r="C47" s="11">
         <f t="shared" ref="C47" si="14">C46/SUM($B46:$E46)</f>
-        <v>0.40294801466733443</v>
+        <v>0.23515212104232683</v>
       </c>
       <c r="D47" s="11">
         <f t="shared" ref="D47" si="15">D46/SUM($B46:$E46)</f>
-        <v>0.40575882486659592</v>
+        <v>0.33996406335691404</v>
       </c>
       <c r="E47" s="11">
         <f>E45/SUM(B43:E45)</f>
-        <v>6.7310501136960646E-2</v>
+        <v>0.20003751834075728</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -23808,7 +23872,7 @@
       </c>
       <c r="B49" s="11">
         <f>E47</f>
-        <v>6.7310501136960646E-2</v>
+        <v>0.20003751834075728</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -23820,7 +23884,7 @@
       </c>
       <c r="B50" s="18">
         <f>E46/SUM(B46:D46)</f>
-        <v>7.2168177318403415E-2</v>
+        <v>0.25005862515683147</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -23880,11 +23944,11 @@
       </c>
       <c r="B58" s="8">
         <f>'Airtime calculations'!B100</f>
-        <v>45.939430628868614</v>
+        <v>44.742688075007905</v>
       </c>
       <c r="C58" s="8">
         <f>'Airtime calculations'!C100</f>
-        <v>39.376654824744527</v>
+        <v>38.350875492863921</v>
       </c>
       <c r="D58" s="8">
         <v>0</v>
@@ -23899,15 +23963,15 @@
       </c>
       <c r="B59" s="8">
         <f>'Airtime calculations'!B201</f>
-        <v>28.287273368847298</v>
+        <v>0</v>
       </c>
       <c r="C59" s="8">
         <f>'Airtime calculations'!C201</f>
-        <v>130.68720296407454</v>
+        <v>0</v>
       </c>
       <c r="D59" s="8">
         <f>'Airtime calculations'!D201</f>
-        <v>101.83418412785026</v>
+        <v>688.88816874926829</v>
       </c>
       <c r="E59" s="8">
         <f>'Airtime calculations'!E201</f>
@@ -23920,15 +23984,15 @@
       </c>
       <c r="B60" s="8">
         <f>SUM(B57:B59)</f>
-        <v>106.99081279771592</v>
+        <v>77.506796875007907</v>
       </c>
       <c r="C60" s="8">
         <f t="shared" ref="C60:E60" si="16">SUM(C57:C59)</f>
-        <v>170.06385778881906</v>
+        <v>38.350875492863921</v>
       </c>
       <c r="D60" s="8">
         <f t="shared" si="16"/>
-        <v>101.83418412785026</v>
+        <v>688.88816874926829</v>
       </c>
       <c r="E60" s="8">
         <f t="shared" si="16"/>
@@ -23941,15 +24005,15 @@
       </c>
       <c r="B61" s="11">
         <f>B60/SUM($B60:$E60)</f>
-        <v>0.28238046980391635</v>
+        <v>9.6312143430792696E-2</v>
       </c>
       <c r="C61" s="11">
         <f t="shared" ref="C61:D61" si="17">C60/SUM($B60:$E60)</f>
-        <v>0.44884893200940662</v>
+        <v>4.7655885291218926E-2</v>
       </c>
       <c r="D61" s="11">
         <f t="shared" si="17"/>
-        <v>0.26877059818667692</v>
+        <v>0.85603197127798836</v>
       </c>
       <c r="E61" s="11">
         <f>E59/SUM(B57:E59)</f>
@@ -23983,7 +24047,7 @@
       </c>
       <c r="B65" s="8">
         <f>D8</f>
-        <v>4.3685478400000006</v>
+        <v>3.6404565333333334</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -24001,11 +24065,11 @@
       </c>
       <c r="B66" s="8">
         <f>B58*C9</f>
-        <v>9.1878861257737228</v>
+        <v>14.914229358335968</v>
       </c>
       <c r="C66" s="8">
         <f>C58*C9</f>
-        <v>7.8753309649489056</v>
+        <v>12.783625164287972</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -24020,15 +24084,15 @@
       </c>
       <c r="B67" s="8">
         <f>B59*C10</f>
-        <v>18.858182245898199</v>
+        <v>0</v>
       </c>
       <c r="C67" s="8">
-        <f>C60*C10</f>
-        <v>113.37590519254604</v>
+        <f>C59*C10</f>
+        <v>0</v>
       </c>
       <c r="D67" s="8">
-        <f>D60*C10</f>
-        <v>67.889456085233505</v>
+        <f>D59*C10</f>
+        <v>382.71564930514904</v>
       </c>
       <c r="E67" s="8">
         <f>E60*C10</f>
@@ -24041,15 +24105,15 @@
       </c>
       <c r="B68" s="8">
         <f>SUM(B65:B67)</f>
-        <v>32.414616211671927</v>
+        <v>18.554685891669301</v>
       </c>
       <c r="C68" s="8">
         <f t="shared" ref="C68:E68" si="18">SUM(C65:C67)</f>
-        <v>121.25123615749494</v>
+        <v>12.783625164287972</v>
       </c>
       <c r="D68" s="8">
         <f t="shared" si="18"/>
-        <v>67.889456085233505</v>
+        <v>382.71564930514904</v>
       </c>
       <c r="E68" s="8">
         <f t="shared" si="18"/>
@@ -24062,15 +24126,15 @@
       </c>
       <c r="B69" s="11">
         <f>B68/SUM($B68:$E68)</f>
-        <v>0.14630485018752493</v>
+        <v>4.4812241079610293E-2</v>
       </c>
       <c r="C69" s="11">
         <f t="shared" ref="C69" si="19">C68/SUM($B68:$E68)</f>
-        <v>0.54727299022244091</v>
+        <v>3.0874297526677606E-2</v>
       </c>
       <c r="D69" s="11">
         <f t="shared" ref="D69" si="20">D68/SUM($B68:$E68)</f>
-        <v>0.30642215959003405</v>
+        <v>0.92431346139371218</v>
       </c>
       <c r="E69" s="11">
         <f>E67/SUM(B65:E67)</f>

--- a/802.11ac-wave-2-model.xlsx
+++ b/802.11ac-wave-2-model.xlsx
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="325">
   <si>
     <t>1 SS</t>
   </si>
@@ -1247,6 +1247,9 @@
   </si>
   <si>
     <t>7.  View your results in the "OUT-wave2" tab, which shows throughput as a function of 11ac client capabilities.  Weights for legacy clients are maintained.</t>
+  </si>
+  <si>
+    <t>Should have noted that the wave 2 output tab was fixed in response to a bug report from Jonathan Hurtt.  Sorry, Jonathan…</t>
   </si>
 </sst>
 </file>
@@ -1365,9 +1368,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="394">
+  <cellStyleXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1810,6 +1815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1819,10 +1825,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1831,9 +1837,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="394">
+  <cellStyles count="396">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2030,6 +2035,7 @@
     <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2226,10 +2232,31 @@
     <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2332,26 +2359,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2668,11 +2675,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2127662328"/>
-        <c:axId val="2127666520"/>
+        <c:axId val="-2122693224"/>
+        <c:axId val="2127858920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127662328"/>
+        <c:axId val="-2122693224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2707,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127666520"/>
+        <c:crossAx val="2127858920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2708,7 +2715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127666520"/>
+        <c:axId val="2127858920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,7 +2725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127662328"/>
+        <c:crossAx val="-2122693224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2952,11 +2959,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2114412088"/>
-        <c:axId val="-2114409112"/>
+        <c:axId val="-2122895368"/>
+        <c:axId val="-2122892392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114412088"/>
+        <c:axId val="-2122895368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114409112"/>
+        <c:crossAx val="-2122892392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2973,7 +2980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114409112"/>
+        <c:axId val="-2122892392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,7 +3009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114412088"/>
+        <c:crossAx val="-2122895368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3485,11 +3492,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2114505736"/>
-        <c:axId val="-2114502760"/>
+        <c:axId val="2127709160"/>
+        <c:axId val="2127701576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114505736"/>
+        <c:axId val="2127709160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3498,7 +3505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114502760"/>
+        <c:crossAx val="2127701576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3506,7 +3513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114502760"/>
+        <c:axId val="2127701576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +3542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114505736"/>
+        <c:crossAx val="2127709160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3885,11 +3892,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2135379800"/>
-        <c:axId val="2135382792"/>
+        <c:axId val="2127611720"/>
+        <c:axId val="2127610568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135379800"/>
+        <c:axId val="2127611720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3898,7 +3905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135382792"/>
+        <c:crossAx val="2127610568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3906,7 +3913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135382792"/>
+        <c:axId val="2127610568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,7 +3924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135379800"/>
+        <c:crossAx val="2127611720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4080,7 +4087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4770,11 +4776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127569240"/>
-        <c:axId val="2127566856"/>
+        <c:axId val="2134953528"/>
+        <c:axId val="2134942024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127569240"/>
+        <c:axId val="2134953528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4796,13 +4802,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="2127566856"/>
+        <c:crossAx val="2134942024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4810,7 +4815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127566856"/>
+        <c:axId val="2134942024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -4834,21 +4839,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127569240"/>
+        <c:crossAx val="2134953528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4893,7 +4896,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5583,11 +5585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135216008"/>
-        <c:axId val="2135196776"/>
+        <c:axId val="-2123821336"/>
+        <c:axId val="-2123698472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135216008"/>
+        <c:axId val="-2123821336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5609,13 +5611,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="2135196776"/>
+        <c:crossAx val="-2123698472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5623,7 +5624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135196776"/>
+        <c:axId val="-2123698472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -5652,21 +5653,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135216008"/>
+        <c:crossAx val="-2123821336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5804,11 +5803,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="2032079992"/>
-        <c:axId val="2032055592"/>
+        <c:axId val="2127797160"/>
+        <c:axId val="2127785576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2032079992"/>
+        <c:axId val="2127797160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5835,7 +5834,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2032055592"/>
+        <c:crossAx val="2127785576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5843,7 +5842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2032055592"/>
+        <c:axId val="2127785576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5853,7 +5852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2032079992"/>
+        <c:crossAx val="2127797160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5905,7 +5904,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5964,11 +5962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114533112"/>
-        <c:axId val="-2114529960"/>
+        <c:axId val="2127593208"/>
+        <c:axId val="2127587784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114533112"/>
+        <c:axId val="2127593208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5977,7 +5975,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114529960"/>
+        <c:crossAx val="2127587784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5985,7 +5983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114529960"/>
+        <c:axId val="2127587784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6008,14 +6006,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114533112"/>
+        <c:crossAx val="2127593208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6062,7 +6059,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6253,11 +6249,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2114583496"/>
-        <c:axId val="-2114602920"/>
+        <c:axId val="-2122999864"/>
+        <c:axId val="-2123009288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114583496"/>
+        <c:axId val="-2122999864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6279,14 +6275,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114602920"/>
+        <c:crossAx val="-2123009288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6294,7 +6289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114602920"/>
+        <c:axId val="-2123009288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6317,21 +6312,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114583496"/>
+        <c:crossAx val="-2122999864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6381,7 +6374,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6564,11 +6556,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2135186376"/>
-        <c:axId val="2135172360"/>
+        <c:axId val="-2123064776"/>
+        <c:axId val="-2123061800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135186376"/>
+        <c:axId val="-2123064776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6577,7 +6569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135172360"/>
+        <c:crossAx val="-2123061800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6585,7 +6577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135172360"/>
+        <c:axId val="-2123061800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6608,21 +6600,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135186376"/>
+        <c:crossAx val="-2123064776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6672,7 +6662,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6782,7 +6771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6910,7 +6898,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7026,7 +7013,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7217,11 +7203,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2114659416"/>
-        <c:axId val="-2114656440"/>
+        <c:axId val="2127562120"/>
+        <c:axId val="2127567768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114659416"/>
+        <c:axId val="2127562120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7230,7 +7216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114656440"/>
+        <c:crossAx val="2127567768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7238,7 +7224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114656440"/>
+        <c:axId val="2127567768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7261,21 +7247,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114659416"/>
+        <c:crossAx val="2127562120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7325,7 +7309,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7441,7 +7424,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7784,11 +7766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2030511576"/>
-        <c:axId val="2066055416"/>
+        <c:axId val="-2123428104"/>
+        <c:axId val="-2123461224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2030511576"/>
+        <c:axId val="-2123428104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7811,19 +7793,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066055416"/>
+        <c:crossAx val="-2123461224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2066055416"/>
+        <c:axId val="-2123461224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7846,14 +7827,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2030511576"/>
+        <c:crossAx val="-2123428104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8221,8 +8201,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2074985864"/>
-        <c:axId val="2074743320"/>
+        <c:axId val="-2123476952"/>
+        <c:axId val="-2123473960"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -8558,11 +8538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2074739000"/>
-        <c:axId val="2074744744"/>
+        <c:axId val="-2123486984"/>
+        <c:axId val="-2123483656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2074985864"/>
+        <c:axId val="-2123476952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8572,12 +8552,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074743320"/>
+        <c:crossAx val="-2123473960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2074743320"/>
+        <c:axId val="-2123473960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8588,12 +8568,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074985864"/>
+        <c:crossAx val="-2123476952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2074744744"/>
+        <c:axId val="-2123483656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8603,12 +8583,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074739000"/>
+        <c:crossAx val="-2123486984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2074739000"/>
+        <c:axId val="-2123486984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,14 +8598,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074744744"/>
+        <c:crossAx val="-2123483656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8770,11 +8749,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2114261992"/>
-        <c:axId val="-2114213432"/>
+        <c:axId val="2127754552"/>
+        <c:axId val="2127744968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114261992"/>
+        <c:axId val="2127754552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8801,7 +8780,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114213432"/>
+        <c:crossAx val="2127744968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8809,7 +8788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114213432"/>
+        <c:axId val="2127744968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8819,7 +8798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114261992"/>
+        <c:crossAx val="2127754552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9671,11 +9650,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2143342536"/>
-        <c:axId val="2143335608"/>
+        <c:axId val="-2122835592"/>
+        <c:axId val="-2122830072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143342536"/>
+        <c:axId val="-2122835592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9703,7 +9682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143335608"/>
+        <c:crossAx val="-2122830072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9711,7 +9690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143335608"/>
+        <c:axId val="-2122830072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9740,7 +9719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143342536"/>
+        <c:crossAx val="-2122835592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13754,17 +13733,17 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="37" t="s">
+      <c r="E86" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
     </row>
     <row r="87" spans="1:13">
       <c r="B87" s="8" t="s">
@@ -13896,12 +13875,12 @@
       <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
@@ -15330,20 +15309,20 @@
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="39" t="s">
+      <c r="A144" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="39"/>
-      <c r="J144" s="39"/>
-      <c r="K144" s="39"/>
-      <c r="L144" s="39"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="40"/>
+      <c r="L144" s="40"/>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="9"/>
@@ -15925,20 +15904,20 @@
       </c>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="39" t="s">
+      <c r="A159" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
-      <c r="F159" s="39"/>
-      <c r="G159" s="39"/>
-      <c r="H159" s="39"/>
-      <c r="I159" s="39"/>
-      <c r="J159" s="39"/>
-      <c r="K159" s="39"/>
-      <c r="L159" s="39"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="40"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="40"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="40"/>
+      <c r="J159" s="40"/>
+      <c r="K159" s="40"/>
+      <c r="L159" s="40"/>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="9"/>
@@ -16523,14 +16502,14 @@
       <c r="K173" s="11"/>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="35" t="s">
+      <c r="A174" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B174" s="35"/>
-      <c r="C174" s="35"/>
-      <c r="D174" s="35"/>
-      <c r="E174" s="35"/>
-      <c r="F174" s="35"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
     </row>
     <row r="175" spans="1:13">
       <c r="B175" t="s">
@@ -16746,23 +16725,23 @@
       <c r="F187" s="13"/>
     </row>
     <row r="188" spans="1:13">
-      <c r="A188" s="35" t="s">
+      <c r="A188" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="35"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="35"/>
-      <c r="E188" s="35"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="36"/>
       <c r="F188" s="21"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="37" t="s">
+      <c r="H188" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="I188" s="37"/>
-      <c r="J188" s="37"/>
-      <c r="K188" s="37"/>
-      <c r="L188" s="37"/>
-      <c r="M188" s="37"/>
+      <c r="I188" s="39"/>
+      <c r="J188" s="39"/>
+      <c r="K188" s="39"/>
+      <c r="L188" s="39"/>
+      <c r="M188" s="39"/>
     </row>
     <row r="189" spans="1:13">
       <c r="B189" s="8" t="s">
@@ -16973,14 +16952,14 @@
       <c r="L194" s="1"/>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="34" t="s">
+      <c r="A195" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B195" s="34"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="34"/>
-      <c r="F195" s="34"/>
+      <c r="B195" s="35"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="35"/>
+      <c r="F195" s="35"/>
       <c r="H195" s="23"/>
       <c r="I195" s="23"/>
       <c r="J195" s="23"/>
@@ -17175,13 +17154,13 @@
       <c r="G202" s="11"/>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="34" t="s">
+      <c r="A203" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="B203" s="34"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="35"/>
+      <c r="D203" s="35"/>
+      <c r="E203" s="35"/>
     </row>
     <row r="204" spans="1:14">
       <c r="B204" s="8" t="s">
@@ -17519,12 +17498,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A73:L73"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="E86:G86"/>
     <mergeCell ref="A188:E188"/>
     <mergeCell ref="H188:M188"/>
     <mergeCell ref="A195:F195"/>
@@ -17535,6 +17508,12 @@
     <mergeCell ref="A144:L144"/>
     <mergeCell ref="A159:L159"/>
     <mergeCell ref="A174:F174"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A73:L73"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="E86:G86"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17597,7 +17576,7 @@
       <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="34">
         <f>'IN-client'!K6</f>
         <v>5</v>
       </c>
@@ -17606,7 +17585,7 @@
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="34">
         <f>IF(C$9=1,0,'IN-client'!B7)</f>
         <v>10</v>
       </c>
@@ -17617,7 +17596,7 @@
       <c r="J7" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="34">
         <f>'IN-client'!K7</f>
         <v>7</v>
       </c>
@@ -17626,18 +17605,18 @@
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="34">
         <f>IF(C$9=1,0,'IN-client'!B8)</f>
         <v>30</v>
       </c>
       <c r="C8" s="30">
-        <f t="shared" ref="C8:C9" si="0">B8/SUM(B$7:B$9)</f>
+        <f t="shared" ref="C8" si="0">B8/SUM(B$7:B$9)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="34">
         <f>'IN-client'!K8</f>
         <v>10</v>
       </c>
@@ -17646,7 +17625,7 @@
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="34">
         <f>IF(C9=1,1,C9*SUM(B7:B8)/(1-C9))</f>
         <v>50</v>
       </c>
@@ -17688,7 +17667,7 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="34">
         <f>IF(C$17=1,0,'IN-client'!B14)</f>
         <v>50</v>
       </c>
@@ -17699,7 +17678,7 @@
       <c r="F14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="34">
         <f>'IN-client'!G14</f>
         <v>0.7</v>
       </c>
@@ -17708,18 +17687,18 @@
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="34">
         <f>IF(C$17=1,0,'IN-client'!B15)</f>
         <v>25</v>
       </c>
       <c r="C15" s="30">
-        <f t="shared" ref="C15:C17" si="1">B15/SUM(B$14:B$17)</f>
+        <f t="shared" ref="C15:C16" si="1">B15/SUM(B$14:B$17)</f>
         <v>0.25</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="34">
         <f>'IN-client'!G15</f>
         <v>0.3</v>
       </c>
@@ -17728,7 +17707,7 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="34">
         <f>IF(C$17=1,0,'IN-client'!B16)</f>
         <v>25</v>
       </c>
@@ -17749,7 +17728,7 @@
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="34">
         <f>IF(C17=1,1,C17*SUM(B14:B16)/(1-C17))</f>
         <v>0</v>
       </c>
@@ -17791,7 +17770,7 @@
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="34">
         <f>IF(C$25=1,0,'IN-client'!B22)</f>
         <v>35</v>
       </c>
@@ -17802,7 +17781,7 @@
       <c r="F22" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="34">
         <f>'IN-client'!G22</f>
         <v>0</v>
       </c>
@@ -17811,18 +17790,18 @@
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="34">
         <f>IF(C$25=1,0,'IN-client'!B23)</f>
         <v>20</v>
       </c>
       <c r="C23" s="30">
-        <f t="shared" ref="C23:C25" si="2">B23/SUM(B$22:B$25)</f>
+        <f t="shared" ref="C23:C24" si="2">B23/SUM(B$22:B$25)</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="F23" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="34">
         <f>'IN-client'!G23</f>
         <v>0</v>
       </c>
@@ -17831,7 +17810,7 @@
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="34">
         <f>IF(C$25=1,0,'IN-client'!B24)</f>
         <v>20</v>
       </c>
@@ -17842,7 +17821,7 @@
       <c r="F24" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="34">
         <f>'IN-client'!G24</f>
         <v>1</v>
       </c>
@@ -17851,7 +17830,7 @@
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="34">
         <f>IF(C25=1,1,C25*SUM(B22:B24)/(1-C25))</f>
         <v>0</v>
       </c>
@@ -17866,7 +17845,7 @@
       <c r="F25" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="34">
         <f>'IN-client'!G25</f>
         <v>0</v>
       </c>
@@ -17904,7 +17883,7 @@
       <c r="A30" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="34">
         <f>'IN-client'!B30</f>
         <v>3</v>
       </c>
@@ -17918,7 +17897,7 @@
       <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="34">
         <f>'IN-client'!B33</f>
         <v>0</v>
       </c>
@@ -17927,49 +17906,49 @@
       <c r="A34" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="34">
         <f>'IN-client'!B34</f>
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>D9="OK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>D9="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>D17="OK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>D17="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>D25="OK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>D25="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>H26="OK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>H26="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>H16="OK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>H16="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20550,17 +20529,17 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="37" t="s">
+      <c r="E86" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
     </row>
     <row r="87" spans="1:13">
       <c r="B87" s="8" t="s">
@@ -20692,12 +20671,12 @@
       <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
@@ -22126,20 +22105,20 @@
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="39" t="s">
+      <c r="A144" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="39"/>
-      <c r="J144" s="39"/>
-      <c r="K144" s="39"/>
-      <c r="L144" s="39"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="40"/>
+      <c r="L144" s="40"/>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="9"/>
@@ -22721,20 +22700,20 @@
       </c>
     </row>
     <row r="159" spans="1:13">
-      <c r="A159" s="39" t="s">
+      <c r="A159" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
-      <c r="F159" s="39"/>
-      <c r="G159" s="39"/>
-      <c r="H159" s="39"/>
-      <c r="I159" s="39"/>
-      <c r="J159" s="39"/>
-      <c r="K159" s="39"/>
-      <c r="L159" s="39"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="40"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="40"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="40"/>
+      <c r="J159" s="40"/>
+      <c r="K159" s="40"/>
+      <c r="L159" s="40"/>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="9"/>
@@ -23319,14 +23298,14 @@
       <c r="K173" s="11"/>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="35" t="s">
+      <c r="A174" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B174" s="35"/>
-      <c r="C174" s="35"/>
-      <c r="D174" s="35"/>
-      <c r="E174" s="35"/>
-      <c r="F174" s="35"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
     </row>
     <row r="175" spans="1:13">
       <c r="B175" t="s">
@@ -23542,23 +23521,23 @@
       <c r="F187" s="13"/>
     </row>
     <row r="188" spans="1:13">
-      <c r="A188" s="35" t="s">
+      <c r="A188" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="35"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="35"/>
-      <c r="E188" s="35"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="36"/>
       <c r="F188" s="32"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="37" t="s">
+      <c r="H188" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="I188" s="37"/>
-      <c r="J188" s="37"/>
-      <c r="K188" s="37"/>
-      <c r="L188" s="37"/>
-      <c r="M188" s="37"/>
+      <c r="I188" s="39"/>
+      <c r="J188" s="39"/>
+      <c r="K188" s="39"/>
+      <c r="L188" s="39"/>
+      <c r="M188" s="39"/>
     </row>
     <row r="189" spans="1:13">
       <c r="B189" s="8" t="s">
@@ -23769,14 +23748,14 @@
       <c r="L194" s="1"/>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="34" t="s">
+      <c r="A195" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B195" s="34"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="34"/>
-      <c r="F195" s="34"/>
+      <c r="B195" s="35"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="35"/>
+      <c r="F195" s="35"/>
       <c r="H195" s="23"/>
       <c r="I195" s="23"/>
       <c r="J195" s="23"/>
@@ -23971,13 +23950,13 @@
       <c r="G202" s="11"/>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="34" t="s">
+      <c r="A203" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="B203" s="34"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="35"/>
+      <c r="D203" s="35"/>
+      <c r="E203" s="35"/>
     </row>
     <row r="204" spans="1:14">
       <c r="B204" s="8" t="s">
@@ -24315,6 +24294,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A73:L73"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="E86:G86"/>
     <mergeCell ref="A188:E188"/>
     <mergeCell ref="H188:M188"/>
     <mergeCell ref="A195:F195"/>
@@ -24325,12 +24310,6 @@
     <mergeCell ref="A144:L144"/>
     <mergeCell ref="A159:L159"/>
     <mergeCell ref="A174:F174"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A73:L73"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="E86:G86"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -25605,19 +25584,19 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12">
@@ -25659,7 +25638,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>283</v>
       </c>
       <c r="B13" s="1">
@@ -25701,7 +25680,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="1">
         <v>0.1</v>
       </c>
@@ -25740,7 +25719,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="40"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="1">
         <v>0.2</v>
       </c>
@@ -25779,7 +25758,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="1">
         <v>0.3</v>
       </c>
@@ -25818,7 +25797,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="40"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="1">
         <v>0.4</v>
       </c>
@@ -25857,7 +25836,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="40"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="1">
         <v>0.5</v>
       </c>
@@ -25896,7 +25875,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="40"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="1">
         <v>0.6</v>
       </c>
@@ -25935,7 +25914,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="40"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="1">
         <v>0.7</v>
       </c>
@@ -25974,7 +25953,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="40"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="1">
         <v>0.8</v>
       </c>
@@ -26013,7 +25992,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="40"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="1">
         <v>0.9</v>
       </c>
@@ -26052,7 +26031,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="40"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="1">
         <v>1</v>
       </c>
@@ -26679,19 +26658,19 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
     </row>
     <row r="39" spans="1:13">
       <c r="B39">
@@ -26733,7 +26712,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="41" t="s">
         <v>284</v>
       </c>
       <c r="B40" s="1">
@@ -26775,7 +26754,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="40"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="1">
         <v>0.1</v>
       </c>
@@ -26814,7 +26793,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="40"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="1">
         <v>0.2</v>
       </c>
@@ -26853,7 +26832,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="40"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="1">
         <v>0.3</v>
       </c>
@@ -26892,7 +26871,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="40"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="1">
         <v>0.4</v>
       </c>
@@ -26931,7 +26910,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="40"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="1">
         <v>0.5</v>
       </c>
@@ -26970,7 +26949,7 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="40"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="1">
         <v>0.6</v>
       </c>
@@ -27009,7 +26988,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="40"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="1">
         <v>0.7</v>
       </c>
@@ -27048,7 +27027,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="40"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="1">
         <v>0.8</v>
       </c>
@@ -27087,7 +27066,7 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="40"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="1">
         <v>0.9</v>
       </c>
@@ -27126,7 +27105,7 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="40"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="1">
         <v>1</v>
       </c>
@@ -28832,10 +28811,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29087,9 +29066,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -29200,6 +29181,14 @@
       </c>
       <c r="B15" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>20160928.199999999</v>
+      </c>
+      <c r="B16" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -29660,21 +29649,21 @@
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1"/>
     <row r="5" spans="1:13">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="F5" s="34" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="F5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="K5" s="34" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="K5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="27"/>
@@ -30069,16 +30058,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="35" t="str">
+      <c r="A1" s="36" t="str">
         <f>IF(Errors!B18="ERROR","WARNING: Inputs do not pass validation. Check that all percentages total to 100%","")</f>
         <v/>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" t="s">
         <v>312</v>
       </c>
@@ -30094,54 +30083,54 @@
       <c r="J2" s="29"/>
     </row>
     <row r="32" spans="5:18">
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
       <c r="H32" s="11">
         <f>'RESULT-t''put'!B52</f>
         <v>0</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="L32" s="36"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="1">
         <f>'RESULT-t''put'!B73</f>
         <v>0.1809056799385467</v>
       </c>
-      <c r="P32" s="36" t="s">
+      <c r="P32" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="Q32" s="36"/>
+      <c r="Q32" s="37"/>
       <c r="R32" s="1">
         <f>'RESULT-t''put'!B95</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:18">
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="11">
         <f>'RESULT-t''put'!B53</f>
         <v>0</v>
       </c>
-      <c r="K33" s="36" t="s">
+      <c r="K33" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="L33" s="36"/>
+      <c r="L33" s="37"/>
       <c r="M33" s="11">
         <f>'RESULT-t''put'!B74</f>
         <v>0.22086062069747245</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="P33" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="Q33" s="36"/>
+      <c r="Q33" s="37"/>
       <c r="R33" s="1">
         <f>'RESULT-t''put'!B96</f>
         <v>0</v>
@@ -30207,16 +30196,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="35" t="str">
+      <c r="A1" s="36" t="str">
         <f>IF(Errors!B18="ERROR","WARNING: Inputs do not pass validation. Check that all percentages total to 100%","")</f>
         <v/>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" t="s">
         <v>312</v>
       </c>
@@ -30229,54 +30218,54 @@
       </c>
     </row>
     <row r="32" spans="5:18">
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
       <c r="H32" s="11">
         <f>'RESULT-equal'!B28</f>
         <v>0</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="L32" s="36"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="1">
         <f>'RESULT-equal'!B49</f>
         <v>0.20003751834075728</v>
       </c>
-      <c r="P32" s="36" t="s">
+      <c r="P32" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="Q32" s="36"/>
+      <c r="Q32" s="37"/>
       <c r="R32" s="1">
         <f>'RESULT-equal'!B71</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:18">
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="11">
         <f>'RESULT-equal'!B29</f>
         <v>0</v>
       </c>
-      <c r="K33" s="36" t="s">
+      <c r="K33" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="L33" s="36"/>
+      <c r="L33" s="37"/>
       <c r="M33" s="11">
         <f>'RESULT-equal'!B50</f>
         <v>0.25005862515683147</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="P33" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="Q33" s="36"/>
+      <c r="Q33" s="37"/>
       <c r="R33" s="1">
         <f>'RESULT-equal'!B72</f>
         <v>0</v>
